--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68436FA7-60FF-4D59-A867-AE5E991760FD}"/>
+  <xr:revisionPtr revIDLastSave="636" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F327E7B4-AAA0-4F36-B402-C229AF96A6C4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1056">
   <si>
     <t>Name</t>
   </si>
@@ -3363,10 +3363,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3668,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
   <dimension ref="A1:G488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3679,7 +3675,7 @@
     <col min="3" max="3" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="92.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3696,7 +3692,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -9886,7 +9882,7 @@
       <c r="D311" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G311" t="s">
@@ -9906,7 +9902,7 @@
       <c r="D312" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G312" t="s">
@@ -9926,7 +9922,7 @@
       <c r="D313" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G313" t="s">
@@ -9946,7 +9942,7 @@
       <c r="D314" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G314" t="s">
@@ -9966,7 +9962,7 @@
       <c r="D315" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G315" t="s">
@@ -9986,7 +9982,7 @@
       <c r="D316" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G316" t="s">
@@ -10006,7 +10002,7 @@
       <c r="D317" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G317" t="s">
@@ -10026,7 +10022,7 @@
       <c r="D318" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G318" t="s">
@@ -10046,7 +10042,7 @@
       <c r="D319" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G319" t="s">
@@ -10066,7 +10062,7 @@
       <c r="D320" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G320" t="s">
@@ -10086,7 +10082,7 @@
       <c r="D321" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G321" t="s">
@@ -10106,7 +10102,7 @@
       <c r="D322" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G322" t="s">
@@ -10126,7 +10122,7 @@
       <c r="D323" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G323" t="s">
@@ -10146,7 +10142,7 @@
       <c r="D324" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G324" t="s">
@@ -10166,7 +10162,7 @@
       <c r="D325" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G325" t="s">
@@ -10186,7 +10182,7 @@
       <c r="D326" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G326" t="s">
@@ -10206,7 +10202,7 @@
       <c r="D327" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G327" t="s">
@@ -10226,7 +10222,7 @@
       <c r="D328" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G328" t="s">
@@ -10246,7 +10242,7 @@
       <c r="D329" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G329" t="s">
@@ -10266,7 +10262,7 @@
       <c r="D330" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G330" t="s">
@@ -10286,7 +10282,7 @@
       <c r="D331" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G331" t="s">
@@ -10306,7 +10302,7 @@
       <c r="D332" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G332" t="s">
@@ -10326,7 +10322,7 @@
       <c r="D333" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G333" t="s">
@@ -10346,7 +10342,7 @@
       <c r="D334" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G334" t="s">
@@ -10366,7 +10362,7 @@
       <c r="D335" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G335" t="s">
@@ -10386,7 +10382,7 @@
       <c r="D336" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G336" t="s">
@@ -10406,7 +10402,7 @@
       <c r="D337" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F337" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G337" t="s">
@@ -10426,7 +10422,7 @@
       <c r="D338" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F338" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G338" t="s">
@@ -10446,7 +10442,7 @@
       <c r="D339" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G339" t="s">
@@ -10466,7 +10462,7 @@
       <c r="D340" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G340" t="s">
@@ -10486,7 +10482,7 @@
       <c r="D341" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G341" t="s">
@@ -10506,7 +10502,7 @@
       <c r="D342" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G342" t="s">
@@ -10526,7 +10522,7 @@
       <c r="D343" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G343" t="s">
@@ -10546,7 +10542,7 @@
       <c r="D344" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G344" t="s">
@@ -10566,7 +10562,7 @@
       <c r="D345" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G345" t="s">
@@ -10586,7 +10582,7 @@
       <c r="D346" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G346" t="s">
@@ -10606,7 +10602,7 @@
       <c r="D347" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G347" t="s">
@@ -10626,7 +10622,7 @@
       <c r="D348" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G348" t="s">
@@ -10646,7 +10642,7 @@
       <c r="D349" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G349" t="s">
@@ -10666,7 +10662,7 @@
       <c r="D350" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G350" t="s">
@@ -10686,7 +10682,7 @@
       <c r="D351" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G351" t="s">
@@ -10706,7 +10702,7 @@
       <c r="D352" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G352" t="s">
@@ -10726,7 +10722,7 @@
       <c r="D353" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G353" t="s">
@@ -10746,7 +10742,7 @@
       <c r="D354" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G354" t="s">
@@ -10766,7 +10762,7 @@
       <c r="D355" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G355" t="s">
@@ -10786,7 +10782,7 @@
       <c r="D356" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G356" t="s">
@@ -10806,7 +10802,7 @@
       <c r="D357" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G357" t="s">
@@ -10826,7 +10822,7 @@
       <c r="D358" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G358" t="s">
@@ -10846,7 +10842,7 @@
       <c r="D359" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G359" t="s">
@@ -10866,7 +10862,7 @@
       <c r="D360" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G360" t="s">
@@ -10886,7 +10882,7 @@
       <c r="D361" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F361" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G361" t="s">
@@ -10906,7 +10902,7 @@
       <c r="D362" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F362" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G362" t="s">
@@ -10926,7 +10922,7 @@
       <c r="D363" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F363" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G363" t="s">
@@ -10946,7 +10942,7 @@
       <c r="D364" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F364" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G364" t="s">
@@ -10966,7 +10962,7 @@
       <c r="D365" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F365" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G365" t="s">
@@ -10986,7 +10982,7 @@
       <c r="D366" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G366" t="s">
@@ -11006,7 +11002,7 @@
       <c r="D367" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G367" t="s">
@@ -11026,7 +11022,7 @@
       <c r="D368" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G368" t="s">
@@ -11046,7 +11042,7 @@
       <c r="D369" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G369" t="s">
@@ -11066,7 +11062,7 @@
       <c r="D370" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F370" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G370" t="s">
@@ -11086,7 +11082,7 @@
       <c r="D371" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F371" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G371" t="s">
@@ -11106,7 +11102,7 @@
       <c r="D372" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F372" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G372" t="s">
@@ -11126,7 +11122,7 @@
       <c r="D373" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F373" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G373" t="s">
@@ -11146,7 +11142,7 @@
       <c r="D374" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F374" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G374" t="s">
@@ -11166,7 +11162,7 @@
       <c r="D375" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G375" t="s">
@@ -11186,7 +11182,7 @@
       <c r="D376" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G376" t="s">
@@ -11206,7 +11202,7 @@
       <c r="D377" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G377" t="s">
@@ -11226,7 +11222,7 @@
       <c r="D378" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F378" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G378" t="s">
@@ -11246,7 +11242,7 @@
       <c r="D379" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F379" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G379" t="s">
@@ -11266,7 +11262,7 @@
       <c r="D380" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F380" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G380" t="s">
@@ -11286,7 +11282,7 @@
       <c r="D381" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F381" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G381" t="s">
@@ -11306,7 +11302,7 @@
       <c r="D382" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F382" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G382" t="s">
@@ -11326,7 +11322,7 @@
       <c r="D383" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G383" t="s">
@@ -11346,7 +11342,7 @@
       <c r="D384" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F384" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G384" t="s">
@@ -11366,7 +11362,7 @@
       <c r="D385" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F385" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G385" t="s">
@@ -11386,7 +11382,7 @@
       <c r="D386" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F386" t="s">
+      <c r="F386" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G386" t="s">
@@ -11406,7 +11402,7 @@
       <c r="D387" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F387" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G387" t="s">
@@ -11426,7 +11422,7 @@
       <c r="D388" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F388" t="s">
+      <c r="F388" s="1" t="s">
         <v>462</v>
       </c>
       <c r="G388" t="s">
@@ -11446,7 +11442,7 @@
       <c r="D389" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F389" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G389" t="s">
@@ -11466,7 +11462,7 @@
       <c r="D390" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F390" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G390" t="s">
@@ -11486,7 +11482,7 @@
       <c r="D391" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F391" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G391" t="s">
@@ -11506,7 +11502,7 @@
       <c r="D392" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F392" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G392" t="s">
@@ -11526,7 +11522,7 @@
       <c r="D393" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F393" t="s">
+      <c r="F393" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G393" t="s">
@@ -11546,7 +11542,7 @@
       <c r="D394" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G394" t="s">
@@ -11566,7 +11562,7 @@
       <c r="D395" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F395" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G395" t="s">
@@ -11586,7 +11582,7 @@
       <c r="D396" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F396" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G396" t="s">
@@ -11606,7 +11602,7 @@
       <c r="D397" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G397" t="s">
@@ -11626,7 +11622,7 @@
       <c r="D398" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G398" t="s">
@@ -11646,7 +11642,7 @@
       <c r="D399" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G399" t="s">
@@ -11666,7 +11662,7 @@
       <c r="D400" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G400" t="s">
@@ -11686,7 +11682,7 @@
       <c r="D401" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F401" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G401" t="s">
@@ -11706,7 +11702,7 @@
       <c r="D402" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F402" s="1" t="s">
         <v>861</v>
       </c>
     </row>
@@ -11723,7 +11719,7 @@
       <c r="D403" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F403" s="1" t="s">
         <v>861</v>
       </c>
     </row>
@@ -11740,7 +11736,7 @@
       <c r="D404" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F404" s="1" t="s">
         <v>861</v>
       </c>
       <c r="G404" t="s">
@@ -11773,6 +11769,9 @@
       </c>
       <c r="D406" s="3" t="s">
         <v>1054</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="666" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE73E3C-4FF3-40EE-B267-F1DA37AE49ED}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D643FB60-0CA7-46BB-A3EF-E7720973B554}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1077">
   <si>
     <t>Name</t>
   </si>
@@ -3230,6 +3230,36 @@
   </si>
   <si>
     <t>Cheers to 2025! Grateful for all we accomplished in 2024 and looking forward to more success and collaborations this new year!</t>
+  </si>
+  <si>
+    <t>RFNET</t>
+  </si>
+  <si>
+    <t>LEEN</t>
+  </si>
+  <si>
+    <t>ALSON</t>
+  </si>
+  <si>
+    <t>GNC PIPING</t>
+  </si>
+  <si>
+    <t>CAST LAB</t>
+  </si>
+  <si>
+    <t>UOB</t>
+  </si>
+  <si>
+    <t>ENERCON</t>
+  </si>
+  <si>
+    <t>PFIZER</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>MICROGRAPHICS</t>
   </si>
 </sst>
 </file>
@@ -3396,10 +3426,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3701,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11730,6 +11756,9 @@
       <c r="C402" s="3">
         <v>6592475844</v>
       </c>
+      <c r="D402" t="s">
+        <v>861</v>
+      </c>
       <c r="E402" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11747,6 +11776,9 @@
       <c r="C403" s="3">
         <v>6591373209</v>
       </c>
+      <c r="D403" t="s">
+        <v>861</v>
+      </c>
       <c r="E403" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11765,7 +11797,7 @@
         <v>888</v>
       </c>
       <c r="D404" t="s">
-        <v>518</v>
+        <v>861</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>1066</v>
@@ -11784,6 +11816,9 @@
       <c r="C405" s="3" t="s">
         <v>889</v>
       </c>
+      <c r="D405" t="s">
+        <v>1067</v>
+      </c>
       <c r="E405" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11798,6 +11833,9 @@
       <c r="C406" s="3" t="s">
         <v>891</v>
       </c>
+      <c r="D406" t="s">
+        <v>1068</v>
+      </c>
       <c r="E406" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11815,6 +11853,9 @@
       <c r="C407" s="3" t="s">
         <v>894</v>
       </c>
+      <c r="D407" t="s">
+        <v>1069</v>
+      </c>
       <c r="E407" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11829,6 +11870,9 @@
       <c r="C408" s="3" t="s">
         <v>895</v>
       </c>
+      <c r="D408" t="s">
+        <v>1070</v>
+      </c>
       <c r="E408" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11843,6 +11887,9 @@
       <c r="C409" s="3" t="s">
         <v>897</v>
       </c>
+      <c r="D409" t="s">
+        <v>1071</v>
+      </c>
       <c r="E409" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11857,6 +11904,9 @@
       <c r="C410" s="3" t="s">
         <v>899</v>
       </c>
+      <c r="D410" t="s">
+        <v>1072</v>
+      </c>
       <c r="E410" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11871,6 +11921,9 @@
       <c r="C411" s="3" t="s">
         <v>901</v>
       </c>
+      <c r="D411" t="s">
+        <v>861</v>
+      </c>
       <c r="E411" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11885,6 +11938,9 @@
       <c r="C412" s="3" t="s">
         <v>903</v>
       </c>
+      <c r="D412" t="s">
+        <v>1073</v>
+      </c>
       <c r="E412" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11899,6 +11955,9 @@
       <c r="C413" s="3" t="s">
         <v>905</v>
       </c>
+      <c r="D413" t="s">
+        <v>1074</v>
+      </c>
       <c r="E413" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11913,6 +11972,9 @@
       <c r="C414" s="3" t="s">
         <v>907</v>
       </c>
+      <c r="D414" t="s">
+        <v>96</v>
+      </c>
       <c r="E414" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11927,6 +11989,9 @@
       <c r="C415" s="3" t="s">
         <v>909</v>
       </c>
+      <c r="D415" t="s">
+        <v>861</v>
+      </c>
       <c r="E415" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11941,6 +12006,9 @@
       <c r="C416" s="3" t="s">
         <v>911</v>
       </c>
+      <c r="D416" t="s">
+        <v>1074</v>
+      </c>
       <c r="E416" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11955,6 +12023,9 @@
       <c r="C417" s="3" t="s">
         <v>913</v>
       </c>
+      <c r="D417" t="s">
+        <v>861</v>
+      </c>
       <c r="E417" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11969,6 +12040,9 @@
       <c r="C418" s="3" t="s">
         <v>915</v>
       </c>
+      <c r="D418" t="s">
+        <v>1075</v>
+      </c>
       <c r="E418" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11983,6 +12057,9 @@
       <c r="C419" s="3" t="s">
         <v>917</v>
       </c>
+      <c r="D419" t="s">
+        <v>1076</v>
+      </c>
       <c r="E419" s="3" t="s">
         <v>1066</v>
       </c>
@@ -11996,6 +12073,9 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>919</v>
+      </c>
+      <c r="D420" t="s">
+        <v>351</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>1066</v>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="686" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D643FB60-0CA7-46BB-A3EF-E7720973B554}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56244550-C8A5-47FE-A74A-28A9C555014E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1121">
   <si>
     <t>Name</t>
   </si>
@@ -3260,6 +3260,138 @@
   </si>
   <si>
     <t>MICROGRAPHICS</t>
+  </si>
+  <si>
+    <t>TRUMPF</t>
+  </si>
+  <si>
+    <t>ABTECH</t>
+  </si>
+  <si>
+    <t>TUV SUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINKGAS </t>
+  </si>
+  <si>
+    <t>PROPERTY LIM</t>
+  </si>
+  <si>
+    <t>NHCS</t>
+  </si>
+  <si>
+    <t>ENERGIE</t>
+  </si>
+  <si>
+    <t>VF FASTENERS</t>
+  </si>
+  <si>
+    <t>ASIATIC FIRE</t>
+  </si>
+  <si>
+    <t>QARS</t>
+  </si>
+  <si>
+    <t>PERFORMANCE ROBOT</t>
+  </si>
+  <si>
+    <t>QPAC</t>
+  </si>
+  <si>
+    <t>TC3030</t>
+  </si>
+  <si>
+    <t>PU FOAM</t>
+  </si>
+  <si>
+    <t>ADLINK</t>
+  </si>
+  <si>
+    <t>TCP GLOBAL</t>
+  </si>
+  <si>
+    <t>SIM LIM TOWER</t>
+  </si>
+  <si>
+    <t>ELECTRICAL PE</t>
+  </si>
+  <si>
+    <t>SEACAD</t>
+  </si>
+  <si>
+    <t>TRD CONSULTANCY</t>
+  </si>
+  <si>
+    <t>E3 DESIGN</t>
+  </si>
+  <si>
+    <t>SYNERSYS</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>DR ANDREW</t>
+  </si>
+  <si>
+    <t>SSES</t>
+  </si>
+  <si>
+    <t>THOMSON MEDICAL</t>
+  </si>
+  <si>
+    <t>STANDARD CHARTERED</t>
+  </si>
+  <si>
+    <t>SSEPL</t>
+  </si>
+  <si>
+    <t>MITSUI</t>
+  </si>
+  <si>
+    <t>MEMS SOLUTIONS</t>
+  </si>
+  <si>
+    <t>NOVUS</t>
+  </si>
+  <si>
+    <t>SYNCHRONOUS ENGINEERING</t>
+  </si>
+  <si>
+    <t>MICRON NOVUS</t>
+  </si>
+  <si>
+    <t>ST ENGINEERING</t>
+  </si>
+  <si>
+    <t>ADEMCO</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>LIANG SENG AIR</t>
+  </si>
+  <si>
+    <t>LEEDEN</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>I DO DESIGN</t>
+  </si>
+  <si>
+    <t>SPARK PLUGS</t>
+  </si>
+  <si>
+    <t>AITECH</t>
+  </si>
+  <si>
+    <t>RENOSTICS</t>
+  </si>
+  <si>
+    <t>PHILIPS CAPITAL</t>
   </si>
 </sst>
 </file>
@@ -3426,6 +3558,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3727,15 +3863,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
   <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D421" sqref="D421"/>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E497" sqref="E497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" customWidth="1"/>
@@ -12091,6 +12227,9 @@
       <c r="C421" s="3" t="s">
         <v>921</v>
       </c>
+      <c r="D421" t="s">
+        <v>1077</v>
+      </c>
       <c r="E421" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12105,6 +12244,9 @@
       <c r="C422" s="3" t="s">
         <v>923</v>
       </c>
+      <c r="D422" t="s">
+        <v>1067</v>
+      </c>
       <c r="E422" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12119,6 +12261,9 @@
       <c r="C423" s="3" t="s">
         <v>925</v>
       </c>
+      <c r="D423" t="s">
+        <v>1078</v>
+      </c>
       <c r="E423" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12133,6 +12278,9 @@
       <c r="C424" s="3" t="s">
         <v>927</v>
       </c>
+      <c r="D424" t="s">
+        <v>1079</v>
+      </c>
       <c r="E424" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12147,6 +12295,9 @@
       <c r="C425" s="3" t="s">
         <v>929</v>
       </c>
+      <c r="D425" t="s">
+        <v>1080</v>
+      </c>
       <c r="E425" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12161,6 +12312,9 @@
       <c r="C426" s="3" t="s">
         <v>931</v>
       </c>
+      <c r="D426" t="s">
+        <v>351</v>
+      </c>
       <c r="E426" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12175,6 +12329,9 @@
       <c r="C427" s="3" t="s">
         <v>934</v>
       </c>
+      <c r="D427" t="s">
+        <v>1081</v>
+      </c>
       <c r="E427" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12189,6 +12346,9 @@
       <c r="C428" s="3" t="s">
         <v>935</v>
       </c>
+      <c r="D428" t="s">
+        <v>351</v>
+      </c>
       <c r="E428" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12203,6 +12363,9 @@
       <c r="C429" s="3" t="s">
         <v>937</v>
       </c>
+      <c r="D429" t="s">
+        <v>1067</v>
+      </c>
       <c r="E429" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12217,6 +12380,9 @@
       <c r="C430" s="3" t="s">
         <v>939</v>
       </c>
+      <c r="D430" t="s">
+        <v>1082</v>
+      </c>
       <c r="E430" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12231,6 +12397,9 @@
       <c r="C431" s="3" t="s">
         <v>941</v>
       </c>
+      <c r="D431" t="s">
+        <v>1077</v>
+      </c>
       <c r="E431" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12245,6 +12414,9 @@
       <c r="C432" s="3" t="s">
         <v>943</v>
       </c>
+      <c r="D432" t="s">
+        <v>1083</v>
+      </c>
       <c r="E432" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12259,6 +12431,9 @@
       <c r="C433" s="3" t="s">
         <v>944</v>
       </c>
+      <c r="D433" t="s">
+        <v>1084</v>
+      </c>
       <c r="E433" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12273,6 +12448,9 @@
       <c r="C434" s="3" t="s">
         <v>946</v>
       </c>
+      <c r="D434" t="s">
+        <v>1084</v>
+      </c>
       <c r="E434" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12287,6 +12465,9 @@
       <c r="C435" s="3" t="s">
         <v>949</v>
       </c>
+      <c r="D435" t="s">
+        <v>1085</v>
+      </c>
       <c r="E435" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12301,6 +12482,9 @@
       <c r="C436" s="3" t="s">
         <v>950</v>
       </c>
+      <c r="D436" t="s">
+        <v>1086</v>
+      </c>
       <c r="E436" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12315,6 +12499,9 @@
       <c r="C437" s="3" t="s">
         <v>952</v>
       </c>
+      <c r="D437" t="s">
+        <v>42</v>
+      </c>
       <c r="E437" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12329,6 +12516,9 @@
       <c r="C438" s="3" t="s">
         <v>954</v>
       </c>
+      <c r="D438" t="s">
+        <v>200</v>
+      </c>
       <c r="E438" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12343,6 +12533,9 @@
       <c r="C439" s="3" t="s">
         <v>956</v>
       </c>
+      <c r="D439" t="s">
+        <v>331</v>
+      </c>
       <c r="E439" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12357,6 +12550,9 @@
       <c r="C440" s="3" t="s">
         <v>957</v>
       </c>
+      <c r="D440" t="s">
+        <v>1087</v>
+      </c>
       <c r="E440" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12371,6 +12567,9 @@
       <c r="C441" s="3" t="s">
         <v>959</v>
       </c>
+      <c r="D441" t="s">
+        <v>1088</v>
+      </c>
       <c r="E441" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12385,6 +12584,9 @@
       <c r="C442" s="3" t="s">
         <v>961</v>
       </c>
+      <c r="D442" t="s">
+        <v>1089</v>
+      </c>
       <c r="E442" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12399,6 +12601,9 @@
       <c r="C443" s="3" t="s">
         <v>966</v>
       </c>
+      <c r="D443" t="s">
+        <v>1090</v>
+      </c>
       <c r="E443" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12413,6 +12618,9 @@
       <c r="C444" s="3" t="s">
         <v>967</v>
       </c>
+      <c r="D444" t="s">
+        <v>351</v>
+      </c>
       <c r="E444" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12427,6 +12635,9 @@
       <c r="C445" s="3" t="s">
         <v>969</v>
       </c>
+      <c r="D445" t="s">
+        <v>1091</v>
+      </c>
       <c r="E445" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12441,6 +12652,9 @@
       <c r="C446" s="3" t="s">
         <v>971</v>
       </c>
+      <c r="D446" t="s">
+        <v>1092</v>
+      </c>
       <c r="E446" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12455,6 +12669,9 @@
       <c r="C447" s="3" t="s">
         <v>973</v>
       </c>
+      <c r="D447" t="s">
+        <v>1093</v>
+      </c>
       <c r="E447" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12469,6 +12686,9 @@
       <c r="C448" s="3" t="s">
         <v>975</v>
       </c>
+      <c r="D448" t="s">
+        <v>1094</v>
+      </c>
       <c r="E448" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12483,6 +12703,9 @@
       <c r="C449" s="3" t="s">
         <v>977</v>
       </c>
+      <c r="D449" t="s">
+        <v>51</v>
+      </c>
       <c r="E449" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12497,6 +12720,9 @@
       <c r="C450" s="3" t="s">
         <v>979</v>
       </c>
+      <c r="D450" t="s">
+        <v>1094</v>
+      </c>
       <c r="E450" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12511,6 +12737,9 @@
       <c r="C451" s="3" t="s">
         <v>981</v>
       </c>
+      <c r="D451" t="s">
+        <v>1094</v>
+      </c>
       <c r="E451" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12525,6 +12754,9 @@
       <c r="C452" s="3" t="s">
         <v>983</v>
       </c>
+      <c r="D452" t="s">
+        <v>1095</v>
+      </c>
       <c r="E452" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12539,6 +12771,9 @@
       <c r="C453" s="3" t="s">
         <v>985</v>
       </c>
+      <c r="D453" t="s">
+        <v>1096</v>
+      </c>
       <c r="E453" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12553,6 +12788,9 @@
       <c r="C454" s="3" t="s">
         <v>987</v>
       </c>
+      <c r="D454" t="s">
+        <v>1097</v>
+      </c>
       <c r="E454" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12567,6 +12805,9 @@
       <c r="C455" s="3" t="s">
         <v>988</v>
       </c>
+      <c r="D455" t="s">
+        <v>1098</v>
+      </c>
       <c r="E455" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12581,6 +12822,9 @@
       <c r="C456" s="3" t="s">
         <v>990</v>
       </c>
+      <c r="D456" t="s">
+        <v>1099</v>
+      </c>
       <c r="E456" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12595,6 +12839,9 @@
       <c r="C457" s="3" t="s">
         <v>992</v>
       </c>
+      <c r="D457" t="s">
+        <v>861</v>
+      </c>
       <c r="E457" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12609,6 +12856,9 @@
       <c r="C458" s="3" t="s">
         <v>995</v>
       </c>
+      <c r="D458" t="s">
+        <v>1100</v>
+      </c>
       <c r="E458" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12623,6 +12873,9 @@
       <c r="C459" s="3" t="s">
         <v>996</v>
       </c>
+      <c r="D459" t="s">
+        <v>1101</v>
+      </c>
       <c r="E459" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12637,6 +12890,9 @@
       <c r="C460" s="3" t="s">
         <v>998</v>
       </c>
+      <c r="D460" t="s">
+        <v>1102</v>
+      </c>
       <c r="E460" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12651,6 +12907,9 @@
       <c r="C461" s="3" t="s">
         <v>1001</v>
       </c>
+      <c r="D461" t="s">
+        <v>1103</v>
+      </c>
       <c r="E461" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12665,6 +12924,9 @@
       <c r="C462" s="3" t="s">
         <v>1002</v>
       </c>
+      <c r="D462" t="s">
+        <v>1104</v>
+      </c>
       <c r="E462" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12678,6 +12940,9 @@
       </c>
       <c r="C463" s="3" t="s">
         <v>1004</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1079</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>1066</v>
@@ -12693,6 +12958,9 @@
       <c r="C464" s="3" t="s">
         <v>1005</v>
       </c>
+      <c r="D464" t="s">
+        <v>1077</v>
+      </c>
       <c r="E464" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12707,6 +12975,9 @@
       <c r="C465" s="3" t="s">
         <v>1006</v>
       </c>
+      <c r="D465" t="s">
+        <v>1105</v>
+      </c>
       <c r="E465" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12721,6 +12992,9 @@
       <c r="C466" s="3" t="s">
         <v>1008</v>
       </c>
+      <c r="D466" t="s">
+        <v>1106</v>
+      </c>
       <c r="E466" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12735,6 +13009,9 @@
       <c r="C467" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="D467" t="s">
+        <v>1107</v>
+      </c>
       <c r="E467" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12749,6 +13026,9 @@
       <c r="C468" s="3" t="s">
         <v>1012</v>
       </c>
+      <c r="D468" t="s">
+        <v>1109</v>
+      </c>
       <c r="E468" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12763,6 +13043,9 @@
       <c r="C469" s="3" t="s">
         <v>1014</v>
       </c>
+      <c r="D469" t="s">
+        <v>1108</v>
+      </c>
       <c r="E469" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12777,6 +13060,9 @@
       <c r="C470" s="3" t="s">
         <v>1015</v>
       </c>
+      <c r="D470" t="s">
+        <v>1107</v>
+      </c>
       <c r="E470" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12791,6 +13077,9 @@
       <c r="C471" s="3" t="s">
         <v>1017</v>
       </c>
+      <c r="D471" t="s">
+        <v>1110</v>
+      </c>
       <c r="E471" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12805,6 +13094,9 @@
       <c r="C472" s="3" t="s">
         <v>1019</v>
       </c>
+      <c r="D472" t="s">
+        <v>425</v>
+      </c>
       <c r="E472" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12819,6 +13111,9 @@
       <c r="C473" s="3" t="s">
         <v>1021</v>
       </c>
+      <c r="D473" t="s">
+        <v>1111</v>
+      </c>
       <c r="E473" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12833,6 +13128,9 @@
       <c r="C474" s="3" t="s">
         <v>1024</v>
       </c>
+      <c r="D474" t="s">
+        <v>1112</v>
+      </c>
       <c r="E474" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12847,6 +13145,9 @@
       <c r="C475" s="3" t="s">
         <v>1026</v>
       </c>
+      <c r="D475" t="s">
+        <v>1057</v>
+      </c>
       <c r="E475" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12861,6 +13162,9 @@
       <c r="C476" s="3" t="s">
         <v>1027</v>
       </c>
+      <c r="D476" t="s">
+        <v>1113</v>
+      </c>
       <c r="E476" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12875,6 +13179,9 @@
       <c r="C477" s="3" t="s">
         <v>1028</v>
       </c>
+      <c r="D477" t="s">
+        <v>1114</v>
+      </c>
       <c r="E477" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12889,6 +13196,9 @@
       <c r="C478" s="3" t="s">
         <v>1031</v>
       </c>
+      <c r="D478" t="s">
+        <v>1114</v>
+      </c>
       <c r="E478" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12903,6 +13213,9 @@
       <c r="C479" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="D479" t="s">
+        <v>1115</v>
+      </c>
       <c r="E479" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12917,6 +13230,9 @@
       <c r="C480" s="3" t="s">
         <v>1034</v>
       </c>
+      <c r="D480" t="s">
+        <v>96</v>
+      </c>
       <c r="E480" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12931,6 +13247,9 @@
       <c r="C481" s="3" t="s">
         <v>1037</v>
       </c>
+      <c r="D481" t="s">
+        <v>1116</v>
+      </c>
       <c r="E481" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12945,6 +13264,9 @@
       <c r="C482" s="3" t="s">
         <v>1038</v>
       </c>
+      <c r="D482" t="s">
+        <v>1117</v>
+      </c>
       <c r="E482" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12959,6 +13281,9 @@
       <c r="C483" s="3" t="s">
         <v>1040</v>
       </c>
+      <c r="D483" t="s">
+        <v>1118</v>
+      </c>
       <c r="E483" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12973,6 +13298,9 @@
       <c r="C484" s="3" t="s">
         <v>1041</v>
       </c>
+      <c r="D484" t="s">
+        <v>1103</v>
+      </c>
       <c r="E484" s="3" t="s">
         <v>1066</v>
       </c>
@@ -12987,6 +13315,9 @@
       <c r="C485" s="3" t="s">
         <v>1043</v>
       </c>
+      <c r="D485" t="s">
+        <v>1108</v>
+      </c>
       <c r="E485" s="3" t="s">
         <v>1066</v>
       </c>
@@ -13001,6 +13332,9 @@
       <c r="C486" s="3" t="s">
         <v>1045</v>
       </c>
+      <c r="D486" t="s">
+        <v>1119</v>
+      </c>
       <c r="E486" s="3" t="s">
         <v>1066</v>
       </c>
@@ -13015,6 +13349,9 @@
       <c r="C487" s="3" t="s">
         <v>1048</v>
       </c>
+      <c r="D487" t="s">
+        <v>96</v>
+      </c>
       <c r="E487" s="3" t="s">
         <v>1066</v>
       </c>
@@ -13028,6 +13365,9 @@
       </c>
       <c r="C488" s="3" t="s">
         <v>1051</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1120</v>
       </c>
       <c r="E488" s="3" t="s">
         <v>1066</v>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B002AE2-B60D-440C-9EA1-E62ABB44CBE2}"/>
+  <xr:revisionPtr revIDLastSave="888" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F7FC7-EFCF-4FA9-BE96-707FC5E56E2B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1121">
   <si>
     <t>Name</t>
   </si>
@@ -3377,6 +3377,21 @@
   </si>
   <si>
     <t>OCBC</t>
+  </si>
+  <si>
+    <t>Jaya</t>
+  </si>
+  <si>
+    <t>+65 8368 2560</t>
+  </si>
+  <si>
+    <t>+65 9739 5800</t>
+  </si>
+  <si>
+    <t>JEREMY</t>
+  </si>
+  <si>
+    <t>+65 8339 7151</t>
   </si>
 </sst>
 </file>
@@ -3431,107 +3446,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3653,10 +3568,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3956,24 +3867,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G489"/>
+  <dimension ref="A1:G492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F474" sqref="F474"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4010,7 +3921,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4027,7 +3938,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4047,7 +3958,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4067,7 +3978,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4087,7 +3998,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4107,7 +4018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4127,7 +4038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4147,7 +4058,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4167,7 +4078,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4187,7 +4098,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4207,7 +4118,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4227,7 +4138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4247,7 +4158,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4267,7 +4178,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4287,7 +4198,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4307,7 +4218,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4327,7 +4238,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4347,7 +4258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4367,7 +4278,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4387,7 +4298,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4407,7 +4318,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4427,7 +4338,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4447,7 +4358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4467,7 +4378,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4487,7 +4398,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4507,7 +4418,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4527,7 +4438,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4547,7 +4458,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4567,7 +4478,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4587,7 +4498,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4607,7 +4518,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4627,7 +4538,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4647,7 +4558,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4667,7 +4578,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4687,7 +4598,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4707,7 +4618,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4727,7 +4638,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4747,7 +4658,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4767,7 +4678,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4787,7 +4698,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4807,7 +4718,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4827,7 +4738,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4847,7 +4758,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4867,7 +4778,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4887,7 +4798,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4907,7 +4818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4927,7 +4838,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4947,7 +4858,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4967,7 +4878,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4987,7 +4898,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5007,7 +4918,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5027,7 +4938,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5047,7 +4958,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5067,7 +4978,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5087,7 +4998,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5107,7 +5018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5127,7 +5038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5147,7 +5058,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5167,7 +5078,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5187,7 +5098,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5207,7 +5118,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5227,7 +5138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5247,7 +5158,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5267,7 +5178,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5287,7 +5198,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5307,7 +5218,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5327,7 +5238,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5347,7 +5258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5367,7 +5278,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5387,7 +5298,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5407,7 +5318,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5427,7 +5338,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5447,7 +5358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5467,7 +5378,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5487,7 +5398,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5507,7 +5418,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5527,7 +5438,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5547,7 +5458,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5567,7 +5478,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5587,7 +5498,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5607,7 +5518,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5627,7 +5538,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5647,7 +5558,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5667,7 +5578,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5687,7 +5598,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5707,7 +5618,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5727,7 +5638,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5747,7 +5658,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5767,7 +5678,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5787,7 +5698,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5807,7 +5718,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5827,7 +5738,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5847,7 +5758,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5867,7 +5778,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5887,7 +5798,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5907,7 +5818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5927,7 +5838,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5947,7 +5858,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5967,7 +5878,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5987,7 +5898,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6007,7 +5918,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6027,7 +5938,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6047,7 +5958,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6067,7 +5978,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6087,7 +5998,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6107,7 +6018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6127,7 +6038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6147,7 +6058,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6167,7 +6078,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6187,7 +6098,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6207,7 +6118,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6227,7 +6138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6247,7 +6158,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6267,7 +6178,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6287,7 +6198,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6307,7 +6218,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6327,7 +6238,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6347,7 +6258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6367,7 +6278,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6387,7 +6298,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6407,7 +6318,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6427,7 +6338,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6447,7 +6358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6467,7 +6378,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6487,7 +6398,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6507,7 +6418,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6527,7 +6438,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6547,7 +6458,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6567,7 +6478,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6587,7 +6498,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6607,7 +6518,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6627,7 +6538,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6647,7 +6558,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6667,7 +6578,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6687,7 +6598,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6707,7 +6618,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6727,7 +6638,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6747,7 +6658,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6767,7 +6678,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6787,7 +6698,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6807,7 +6718,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6827,7 +6738,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6847,7 +6758,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6867,7 +6778,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6887,7 +6798,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6907,7 +6818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6927,7 +6838,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6947,7 +6858,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6967,7 +6878,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6987,7 +6898,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -7007,7 +6918,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7027,7 +6938,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -7047,7 +6958,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7067,7 +6978,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7087,7 +6998,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7107,7 +7018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7127,7 +7038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7147,7 +7058,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7167,7 +7078,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -7187,7 +7098,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7207,7 +7118,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -7227,7 +7138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7247,7 +7158,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7267,7 +7178,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7287,7 +7198,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7307,7 +7218,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7327,7 +7238,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7347,7 +7258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7367,7 +7278,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7387,7 +7298,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7407,7 +7318,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7427,7 +7338,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7447,7 +7358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7467,7 +7378,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7487,7 +7398,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7507,7 +7418,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7527,7 +7438,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7547,7 +7458,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7567,7 +7478,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7587,7 +7498,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7607,7 +7518,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7627,7 +7538,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7647,7 +7558,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7667,7 +7578,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7687,7 +7598,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7707,7 +7618,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7727,7 +7638,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7747,7 +7658,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7767,7 +7678,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7787,7 +7698,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7807,7 +7718,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7827,7 +7738,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7847,7 +7758,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7867,7 +7778,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7887,7 +7798,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7907,7 +7818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7927,7 +7838,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7947,7 +7858,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7967,7 +7878,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7987,7 +7898,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -8007,7 +7918,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -8027,7 +7938,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -8047,7 +7958,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8067,7 +7978,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8087,7 +7998,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8107,7 +8018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8127,7 +8038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8147,7 +8058,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8167,7 +8078,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8187,7 +8098,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8207,7 +8118,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8227,7 +8138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8247,7 +8158,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8267,7 +8178,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8287,7 +8198,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8307,7 +8218,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8327,7 +8238,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8347,7 +8258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8367,7 +8278,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8387,7 +8298,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8407,7 +8318,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8427,7 +8338,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8447,7 +8358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8467,7 +8378,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8487,7 +8398,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8507,7 +8418,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8527,7 +8438,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8547,7 +8458,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8567,7 +8478,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8587,7 +8498,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8607,7 +8518,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8627,7 +8538,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8647,7 +8558,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8667,7 +8578,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8687,7 +8598,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8707,7 +8618,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8727,7 +8638,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8747,7 +8658,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8767,7 +8678,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8787,7 +8698,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8807,7 +8718,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8827,7 +8738,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8847,7 +8758,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8867,7 +8778,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8887,7 +8798,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8907,7 +8818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8927,7 +8838,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8947,7 +8858,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8967,7 +8878,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8987,7 +8898,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -9007,7 +8918,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -9027,7 +8938,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -9047,7 +8958,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -9067,7 +8978,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -9087,7 +8998,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -9107,7 +9018,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -9127,7 +9038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -9147,7 +9058,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -9167,7 +9078,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -9187,7 +9098,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -9207,7 +9118,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -9227,7 +9138,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -9247,7 +9158,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -9267,7 +9178,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -9287,7 +9198,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9307,7 +9218,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9327,7 +9238,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9347,7 +9258,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9367,7 +9278,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9387,7 +9298,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9407,7 +9318,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9427,7 +9338,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9447,7 +9358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9467,7 +9378,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9487,7 +9398,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9507,7 +9418,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9527,7 +9438,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9547,7 +9458,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9567,7 +9478,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9587,7 +9498,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9607,7 +9518,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9627,7 +9538,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9647,7 +9558,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9667,7 +9578,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9687,7 +9598,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9707,7 +9618,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9727,7 +9638,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9747,7 +9658,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9767,7 +9678,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9787,7 +9698,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9807,7 +9718,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9827,7 +9738,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9847,7 +9758,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -9867,7 +9778,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -9887,7 +9798,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -9907,7 +9818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -9927,7 +9838,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -9945,7 +9856,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -9965,7 +9876,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -9985,7 +9896,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -10005,7 +9916,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -10025,7 +9936,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -10045,7 +9956,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -10065,7 +9976,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -10085,7 +9996,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -10105,7 +10016,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -10125,7 +10036,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -10145,7 +10056,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -10165,7 +10076,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -10185,7 +10096,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -10205,7 +10116,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -10225,7 +10136,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -10245,7 +10156,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -10265,7 +10176,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -10285,7 +10196,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -10305,7 +10216,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -10325,7 +10236,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -10345,7 +10256,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -10365,7 +10276,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -10385,7 +10296,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -10405,7 +10316,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -10425,7 +10336,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -10445,7 +10356,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -10465,7 +10376,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -10485,7 +10396,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -10505,7 +10416,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -10525,7 +10436,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -10545,7 +10456,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -10565,7 +10476,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -10585,7 +10496,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -10605,7 +10516,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -10625,7 +10536,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -10645,7 +10556,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -10665,7 +10576,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -10685,7 +10596,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -10705,7 +10616,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -10725,7 +10636,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -10745,7 +10656,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -10765,7 +10676,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -10785,7 +10696,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -10805,7 +10716,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -10825,7 +10736,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -10845,7 +10756,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -10865,7 +10776,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -10885,7 +10796,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -10905,7 +10816,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -10925,7 +10836,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -10945,7 +10856,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -10965,7 +10876,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -10985,7 +10896,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -11005,7 +10916,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -11025,7 +10936,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -11045,7 +10956,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -11065,7 +10976,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11085,7 +10996,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -11105,7 +11016,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -11125,7 +11036,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -11145,7 +11056,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -11165,7 +11076,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -11185,7 +11096,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -11205,7 +11116,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -11225,7 +11136,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -11245,7 +11156,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -11265,7 +11176,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -11285,7 +11196,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -11305,7 +11216,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -11325,7 +11236,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -11345,7 +11256,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -11365,7 +11276,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -11385,7 +11296,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -11405,7 +11316,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -11425,7 +11336,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -11445,7 +11356,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -11465,7 +11376,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -11485,7 +11396,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11505,7 +11416,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -11525,7 +11436,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -11545,7 +11456,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -11565,7 +11476,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -11585,7 +11496,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -11605,7 +11516,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -11625,7 +11536,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -11645,7 +11556,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -11665,7 +11576,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -11685,7 +11596,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -11705,7 +11616,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -11725,7 +11636,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -11745,7 +11656,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -11765,7 +11676,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -11785,7 +11696,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -11805,7 +11716,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -11825,7 +11736,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -11845,7 +11756,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -11865,7 +11776,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -11885,7 +11796,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -11905,7 +11816,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -11925,7 +11836,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -11945,7 +11856,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -11965,7 +11876,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -11985,7 +11896,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -12005,7 +11916,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -12025,7 +11936,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -12045,7 +11956,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12065,7 +11976,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12085,7 +11996,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -12105,7 +12016,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -12125,7 +12036,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -12145,7 +12056,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -12165,7 +12076,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -12185,7 +12096,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -12205,7 +12116,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -12225,7 +12136,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -12245,7 +12156,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -12265,7 +12176,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -12285,7 +12196,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -12305,7 +12216,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -12325,7 +12236,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -12345,7 +12256,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -12365,7 +12276,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -12385,7 +12296,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -12405,7 +12316,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -12425,7 +12336,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -12445,7 +12356,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -12465,7 +12376,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -12485,7 +12396,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -12505,7 +12416,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -12525,7 +12436,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -12545,7 +12456,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -12565,7 +12476,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -12585,7 +12496,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -12605,7 +12516,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -12625,7 +12536,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -12645,7 +12556,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -12665,7 +12576,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -12685,7 +12596,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -12705,7 +12616,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -12725,7 +12636,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -12745,7 +12656,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -12765,7 +12676,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -12785,7 +12696,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -12805,7 +12716,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -12825,7 +12736,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -12845,7 +12756,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -12865,7 +12776,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -12885,7 +12796,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -12905,7 +12816,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -12925,7 +12836,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -12945,7 +12856,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -12965,7 +12876,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -12985,7 +12896,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -13005,7 +12916,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -13025,7 +12936,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -13045,7 +12956,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -13065,7 +12976,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -13085,7 +12996,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -13105,7 +13016,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -13125,7 +13036,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -13145,7 +13056,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -13165,7 +13076,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -13185,7 +13096,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -13205,7 +13116,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -13225,7 +13136,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -13245,7 +13156,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -13265,7 +13176,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -13285,7 +13196,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -13305,7 +13216,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -13325,7 +13236,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -13345,7 +13256,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -13365,7 +13276,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -13385,7 +13296,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -13405,7 +13316,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -13425,7 +13336,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -13445,7 +13356,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -13465,7 +13376,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -13485,7 +13396,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -13505,7 +13416,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -13525,7 +13436,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -13545,7 +13456,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -13565,7 +13476,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -13585,7 +13496,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -13605,7 +13516,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -13625,7 +13536,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -13645,7 +13556,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -13665,7 +13576,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -13685,7 +13596,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -13705,7 +13616,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -13725,7 +13636,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -13743,6 +13654,57 @@
       </c>
       <c r="F489" s="3" t="s">
         <v>1061</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>948</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>110</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D492" t="s">
+        <v>110</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -13750,21 +13712,21 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G489">
     <sortCondition ref="E481:E489"/>
   </sortState>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C148">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C309">
     <cfRule type="duplicateValues" dxfId="2" priority="27"/>
@@ -13783,17 +13745,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="146.1796875" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1045</v>
       </c>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F7FC7-EFCF-4FA9-BE96-707FC5E56E2B}"/>
+  <xr:revisionPtr revIDLastSave="898" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3108CC46-FE5A-44CC-9ACA-611578065CD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1125">
   <si>
     <t>Name</t>
   </si>
@@ -3392,6 +3392,18 @@
   </si>
   <si>
     <t>+65 8339 7151</t>
+  </si>
+  <si>
+    <t>+65 8328 6564</t>
+  </si>
+  <si>
+    <t>APM Suntec</t>
+  </si>
+  <si>
+    <t>Ms Tay</t>
+  </si>
+  <si>
+    <t>+65 9656 9235</t>
   </si>
 </sst>
 </file>
@@ -3568,6 +3580,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3867,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G492"/>
+  <dimension ref="A1:G494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F474" sqref="F474"/>
+    <sheetView tabSelected="1" topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E495" sqref="E495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13704,6 +13720,40 @@
         <v>110</v>
       </c>
       <c r="E492" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>32</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="898" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3108CC46-FE5A-44CC-9ACA-611578065CD2}"/>
+  <xr:revisionPtr revIDLastSave="903" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFEE0C6B-069A-4DC9-8A40-CC92ED1F304F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1127">
   <si>
     <t>Name</t>
   </si>
@@ -3404,6 +3404,12 @@
   </si>
   <si>
     <t>+65 9656 9235</t>
+  </si>
+  <si>
+    <t>Qin Yi</t>
+  </si>
+  <si>
+    <t>+65 9737 6089</t>
   </si>
 </sst>
 </file>
@@ -3883,10 +3889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G494"/>
+  <dimension ref="A1:G495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E495" sqref="E495"/>
+      <selection activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13754,6 +13760,23 @@
         <v>1122</v>
       </c>
       <c r="E494" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D495" t="s">
+        <v>106</v>
+      </c>
+      <c r="E495" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="903" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFEE0C6B-069A-4DC9-8A40-CC92ED1F304F}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5143AA-E972-43BC-B336-2707AA55781B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1129">
   <si>
     <t>Name</t>
   </si>
@@ -3410,6 +3410,12 @@
   </si>
   <si>
     <t>+65 9737 6089</t>
+  </si>
+  <si>
+    <t>+65 9878 9657</t>
+  </si>
+  <si>
+    <t>Sammi</t>
   </si>
 </sst>
 </file>
@@ -3889,24 +3895,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G495"/>
+  <dimension ref="A1:G496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D496" sqref="D496"/>
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4600,7 +4606,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4740,7 +4746,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4800,7 +4806,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4900,7 +4906,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4920,7 +4926,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4980,7 +4986,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5140,7 +5146,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5200,7 +5206,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5360,7 +5366,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5400,7 +5406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5440,7 +5446,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5460,7 +5466,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5580,7 +5586,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5600,7 +5606,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5740,7 +5746,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5820,7 +5826,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5900,7 +5906,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6080,7 +6086,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6240,7 +6246,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6300,7 +6306,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6380,7 +6386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6420,7 +6426,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6600,7 +6606,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6660,7 +6666,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6820,7 +6826,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6840,7 +6846,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6880,7 +6886,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6920,7 +6926,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7000,7 +7006,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7060,7 +7066,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7140,7 +7146,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7240,7 +7246,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7260,7 +7266,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7280,7 +7286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7300,7 +7306,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7340,7 +7346,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7380,7 +7386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7500,7 +7506,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7540,7 +7546,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7660,7 +7666,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7700,7 +7706,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7720,7 +7726,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7820,7 +7826,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7900,7 +7906,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7920,7 +7926,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8060,7 +8066,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8160,7 +8166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8220,7 +8226,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8240,7 +8246,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8280,7 +8286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8380,7 +8386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8480,7 +8486,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8540,7 +8546,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8580,7 +8586,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8700,7 +8706,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8760,7 +8766,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8800,7 +8806,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8820,7 +8826,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8860,7 +8866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8900,7 +8906,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -8940,7 +8946,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -9060,7 +9066,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9240,7 +9246,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9260,7 +9266,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9280,7 +9286,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9340,7 +9346,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9360,7 +9366,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9400,7 +9406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9420,7 +9426,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9460,7 +9466,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9500,7 +9506,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9540,7 +9546,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9560,7 +9566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9600,7 +9606,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9620,7 +9626,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9660,7 +9666,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9700,7 +9706,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9740,7 +9746,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9780,7 +9786,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -9800,7 +9806,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -9820,7 +9826,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -9840,7 +9846,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -9860,7 +9866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -9878,7 +9884,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -9898,7 +9904,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -9918,7 +9924,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -9938,7 +9944,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -9958,7 +9964,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -9978,7 +9984,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -9998,7 +10004,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -10018,7 +10024,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -10098,7 +10104,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -10138,7 +10144,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -10198,7 +10204,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -10238,7 +10244,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -10318,7 +10324,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -10338,7 +10344,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -10378,7 +10384,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -10398,7 +10404,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -10418,7 +10424,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -10438,7 +10444,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -10458,7 +10464,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -10478,7 +10484,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -10498,7 +10504,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -10518,7 +10524,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -10558,7 +10564,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -10578,7 +10584,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -10598,7 +10604,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -10638,7 +10644,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -10658,7 +10664,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -10678,7 +10684,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -10698,7 +10704,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -10738,7 +10744,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -10778,7 +10784,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -10798,7 +10804,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -10818,7 +10824,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -10858,7 +10864,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -10878,7 +10884,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -10898,7 +10904,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -10918,7 +10924,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -10938,7 +10944,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -10958,7 +10964,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -10978,7 +10984,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -10998,7 +11004,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11018,7 +11024,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -11038,7 +11044,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -11058,7 +11064,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -11098,7 +11104,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -11118,7 +11124,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -11138,7 +11144,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -11158,7 +11164,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -11178,7 +11184,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -11198,7 +11204,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -11218,7 +11224,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -11238,7 +11244,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -11258,7 +11264,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -11278,7 +11284,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -11298,7 +11304,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -11318,7 +11324,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -11338,7 +11344,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -11358,7 +11364,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -11378,7 +11384,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -11398,7 +11404,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -11418,7 +11424,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11438,7 +11444,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -11458,7 +11464,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -11478,7 +11484,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -11498,7 +11504,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -11518,7 +11524,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -11538,7 +11544,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -11558,7 +11564,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -11578,7 +11584,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -11638,7 +11644,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -11658,7 +11664,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -11678,7 +11684,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -11698,7 +11704,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -11718,7 +11724,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -11738,7 +11744,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -11758,7 +11764,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -11778,7 +11784,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -11838,7 +11844,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -11858,7 +11864,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -11878,7 +11884,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -11898,7 +11904,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -11918,7 +11924,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -11938,7 +11944,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -11958,7 +11964,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -11978,7 +11984,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -12038,7 +12044,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -12058,7 +12064,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -12078,7 +12084,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -12098,7 +12104,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -12118,7 +12124,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -12138,7 +12144,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -12158,7 +12164,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -12178,7 +12184,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -12198,7 +12204,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -12218,7 +12224,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -12238,7 +12244,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -12258,7 +12264,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -12278,7 +12284,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -12298,7 +12304,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -12358,7 +12364,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -12398,7 +12404,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -12438,7 +12444,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -12458,7 +12464,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -12478,7 +12484,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -12498,7 +12504,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -12538,7 +12544,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -12558,7 +12564,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -12578,7 +12584,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -12618,7 +12624,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -12638,7 +12644,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -12698,7 +12704,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -12718,7 +12724,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -12738,7 +12744,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -12778,7 +12784,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -12798,7 +12804,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -12818,7 +12824,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -12838,7 +12844,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -12858,7 +12864,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -12878,7 +12884,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -12898,7 +12904,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -12938,7 +12944,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -12958,7 +12964,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -12998,7 +13004,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -13018,7 +13024,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -13038,7 +13044,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -13058,7 +13064,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -13078,7 +13084,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -13098,7 +13104,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -13118,7 +13124,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -13138,7 +13144,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -13178,7 +13184,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -13198,7 +13204,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -13218,7 +13224,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -13258,7 +13264,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -13298,7 +13304,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -13318,7 +13324,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -13338,7 +13344,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -13378,7 +13384,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -13398,7 +13404,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -13458,7 +13464,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -13478,7 +13484,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -13498,7 +13504,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -13518,7 +13524,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -13538,7 +13544,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -13558,7 +13564,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -13578,7 +13584,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -13598,7 +13604,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -13618,7 +13624,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -13638,7 +13644,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -13658,7 +13664,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -13695,7 +13701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -13712,7 +13718,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -13729,7 +13735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -13746,7 +13752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -13763,7 +13769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -13778,6 +13784,23 @@
       </c>
       <c r="E495" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D496" t="s">
+        <v>508</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -13818,17 +13841,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="146.140625" customWidth="1"/>
+    <col min="2" max="2" width="146.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1045</v>
       </c>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="908" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5143AA-E972-43BC-B336-2707AA55781B}"/>
+  <xr:revisionPtr revIDLastSave="918" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CDCB4D-C3BF-4B46-BBEF-B472BE5BCAAE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1133">
   <si>
     <t>Name</t>
   </si>
@@ -3416,6 +3416,18 @@
   </si>
   <si>
     <t>Sammi</t>
+  </si>
+  <si>
+    <t>+65 9871 5283</t>
+  </si>
+  <si>
+    <t>Kasey</t>
+  </si>
+  <si>
+    <t>+65 8683 8688</t>
+  </si>
+  <si>
+    <t>Chrissy</t>
   </si>
 </sst>
 </file>
@@ -3592,10 +3604,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3895,24 +3903,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G496"/>
+  <dimension ref="A1:G498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B496" sqref="B496"/>
+      <selection activeCell="E499" sqref="E499"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3949,7 +3957,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3966,7 +3974,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4006,7 +4014,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4086,7 +4094,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4146,7 +4154,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4186,7 +4194,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4206,7 +4214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4266,7 +4274,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4426,7 +4434,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4486,7 +4494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4526,7 +4534,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4546,7 +4554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4606,7 +4614,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4686,7 +4694,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4706,7 +4714,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4766,7 +4774,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4846,7 +4854,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4886,7 +4894,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4926,7 +4934,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4966,7 +4974,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5006,7 +5014,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5026,7 +5034,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5046,7 +5054,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5086,7 +5094,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5106,7 +5114,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5166,7 +5174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5186,7 +5194,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5206,7 +5214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5226,7 +5234,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5266,7 +5274,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5286,7 +5294,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5306,7 +5314,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5366,7 +5374,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5386,7 +5394,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5406,7 +5414,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5426,7 +5434,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5446,7 +5454,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5526,7 +5534,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5586,7 +5594,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5626,7 +5634,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5646,7 +5654,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5686,7 +5694,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5786,7 +5794,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5806,7 +5814,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5866,7 +5874,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5946,7 +5954,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5966,7 +5974,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6026,7 +6034,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6046,7 +6054,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6066,7 +6074,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6086,7 +6094,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6106,7 +6114,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6166,7 +6174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6206,7 +6214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6226,7 +6234,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6246,7 +6254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6286,7 +6294,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6306,7 +6314,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6366,7 +6374,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6406,7 +6414,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6426,7 +6434,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6466,7 +6474,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6486,7 +6494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6506,7 +6514,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6526,7 +6534,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6546,7 +6554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6566,7 +6574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6586,7 +6594,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6606,7 +6614,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6626,7 +6634,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6646,7 +6654,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6666,7 +6674,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6706,7 +6714,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6726,7 +6734,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6806,7 +6814,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6826,7 +6834,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6846,7 +6854,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6866,7 +6874,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6906,7 +6914,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6926,7 +6934,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6946,7 +6954,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6966,7 +6974,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7006,7 +7014,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7066,7 +7074,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7086,7 +7094,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7146,7 +7154,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7186,7 +7194,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7246,7 +7254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7266,7 +7274,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7286,7 +7294,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7306,7 +7314,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7326,7 +7334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7346,7 +7354,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7386,7 +7394,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7406,7 +7414,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7426,7 +7434,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7486,7 +7494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7506,7 +7514,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7526,7 +7534,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7566,7 +7574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7586,7 +7594,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7606,7 +7614,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7626,7 +7634,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7646,7 +7654,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7666,7 +7674,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7686,7 +7694,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7706,7 +7714,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7726,7 +7734,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7766,7 +7774,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7786,7 +7794,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7826,7 +7834,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7846,7 +7854,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7866,7 +7874,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7886,7 +7894,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7906,7 +7914,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7926,7 +7934,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7946,7 +7954,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7966,7 +7974,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7986,7 +7994,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8006,7 +8014,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8026,7 +8034,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8046,7 +8054,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8066,7 +8074,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8086,7 +8094,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8106,7 +8114,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8126,7 +8134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8146,7 +8154,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8166,7 +8174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8186,7 +8194,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8206,7 +8214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8226,7 +8234,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8246,7 +8254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8266,7 +8274,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8286,7 +8294,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8306,7 +8314,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8326,7 +8334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8366,7 +8374,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8386,7 +8394,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8406,7 +8414,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8446,7 +8454,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8466,7 +8474,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8486,7 +8494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8506,7 +8514,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8526,7 +8534,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8546,7 +8554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8586,7 +8594,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8606,7 +8614,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8626,7 +8634,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8646,7 +8654,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8666,7 +8674,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8686,7 +8694,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8706,7 +8714,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8726,7 +8734,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8746,7 +8754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8766,7 +8774,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8786,7 +8794,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8806,7 +8814,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8826,7 +8834,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8846,7 +8854,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8866,7 +8874,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8886,7 +8894,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8906,7 +8914,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8926,7 +8934,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -8946,7 +8954,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -8966,7 +8974,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -8986,7 +8994,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -9006,7 +9014,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -9026,7 +9034,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -9046,7 +9054,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -9066,7 +9074,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -9086,7 +9094,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -9106,7 +9114,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -9126,7 +9134,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -9146,7 +9154,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -9166,7 +9174,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -9186,7 +9194,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -9206,7 +9214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -9226,7 +9234,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9246,7 +9254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9266,7 +9274,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9286,7 +9294,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9306,7 +9314,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9366,7 +9374,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9386,7 +9394,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9406,7 +9414,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9426,7 +9434,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9446,7 +9454,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9466,7 +9474,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9506,7 +9514,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9526,7 +9534,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9546,7 +9554,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9566,7 +9574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9586,7 +9594,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9606,7 +9614,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9626,7 +9634,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9646,7 +9654,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9666,7 +9674,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9686,7 +9694,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9706,7 +9714,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9726,7 +9734,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9746,7 +9754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9766,7 +9774,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9786,7 +9794,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -9806,7 +9814,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -9826,7 +9834,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -9846,7 +9854,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -9884,7 +9892,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -9904,7 +9912,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -9924,7 +9932,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -9944,7 +9952,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -9964,7 +9972,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -9984,7 +9992,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -10004,7 +10012,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -10024,7 +10032,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -10044,7 +10052,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -10064,7 +10072,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -10084,7 +10092,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -10104,7 +10112,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -10124,7 +10132,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -10144,7 +10152,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -10164,7 +10172,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -10184,7 +10192,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -10224,7 +10232,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -10244,7 +10252,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -10264,7 +10272,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -10284,7 +10292,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -10304,7 +10312,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -10324,7 +10332,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -10344,7 +10352,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -10364,7 +10372,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -10384,7 +10392,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -10404,7 +10412,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -10424,7 +10432,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -10444,7 +10452,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -10464,7 +10472,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -10484,7 +10492,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -10504,7 +10512,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -10544,7 +10552,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -10564,7 +10572,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -10584,7 +10592,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -10604,7 +10612,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -10624,7 +10632,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -10644,7 +10652,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -10664,7 +10672,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -10684,7 +10692,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -10704,7 +10712,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -10724,7 +10732,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -10744,7 +10752,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -10764,7 +10772,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -10784,7 +10792,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -10804,7 +10812,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -10824,7 +10832,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -10844,7 +10852,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -10864,7 +10872,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -10884,7 +10892,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -10904,7 +10912,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -10924,7 +10932,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -10944,7 +10952,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -10964,7 +10972,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -10984,7 +10992,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -11004,7 +11012,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11024,7 +11032,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -11044,7 +11052,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -11064,7 +11072,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -11084,7 +11092,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -11104,7 +11112,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -11124,7 +11132,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -11144,7 +11152,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -11164,7 +11172,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -11184,7 +11192,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -11204,7 +11212,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -11224,7 +11232,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -11244,7 +11252,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -11264,7 +11272,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -11284,7 +11292,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -11304,7 +11312,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -11324,7 +11332,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -11344,7 +11352,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -11364,7 +11372,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -11384,7 +11392,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -11404,7 +11412,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -11424,7 +11432,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11444,7 +11452,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -11464,7 +11472,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -11484,7 +11492,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -11504,7 +11512,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -11524,7 +11532,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -11544,7 +11552,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -11564,7 +11572,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -11584,7 +11592,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -11604,7 +11612,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -11624,7 +11632,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -11644,7 +11652,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -11664,7 +11672,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -11684,7 +11692,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -11704,7 +11712,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -11724,7 +11732,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -11744,7 +11752,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -11764,7 +11772,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -11784,7 +11792,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -11804,7 +11812,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -11824,7 +11832,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -11844,7 +11852,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -11864,7 +11872,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -11884,7 +11892,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -11904,7 +11912,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -11924,7 +11932,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -11944,7 +11952,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -11964,7 +11972,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -11984,7 +11992,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12004,7 +12012,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12024,7 +12032,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -12044,7 +12052,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -12064,7 +12072,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -12084,7 +12092,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -12104,7 +12112,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -12124,7 +12132,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -12144,7 +12152,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -12164,7 +12172,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -12184,7 +12192,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -12204,7 +12212,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -12224,7 +12232,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -12244,7 +12252,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -12264,7 +12272,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -12284,7 +12292,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -12304,7 +12312,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -12324,7 +12332,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -12344,7 +12352,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -12364,7 +12372,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -12384,7 +12392,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -12404,7 +12412,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -12424,7 +12432,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -12444,7 +12452,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -12464,7 +12472,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -12484,7 +12492,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -12504,7 +12512,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -12524,7 +12532,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -12544,7 +12552,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -12564,7 +12572,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -12584,7 +12592,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -12604,7 +12612,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -12624,7 +12632,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -12644,7 +12652,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -12664,7 +12672,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -12684,7 +12692,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -12704,7 +12712,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -12724,7 +12732,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -12744,7 +12752,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -12764,7 +12772,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -12784,7 +12792,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -12804,7 +12812,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -12824,7 +12832,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -12844,7 +12852,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -12864,7 +12872,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -12884,7 +12892,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -12904,7 +12912,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -12924,7 +12932,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -12944,7 +12952,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -12964,7 +12972,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -12984,7 +12992,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -13004,7 +13012,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -13024,7 +13032,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -13044,7 +13052,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -13064,7 +13072,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -13084,7 +13092,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -13104,7 +13112,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -13124,7 +13132,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -13144,7 +13152,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -13164,7 +13172,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -13184,7 +13192,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -13204,7 +13212,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -13224,7 +13232,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -13244,7 +13252,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -13264,7 +13272,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -13284,7 +13292,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -13304,7 +13312,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -13324,7 +13332,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -13344,7 +13352,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -13364,7 +13372,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -13384,7 +13392,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -13404,7 +13412,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -13424,7 +13432,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -13444,7 +13452,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -13464,7 +13472,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -13484,7 +13492,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -13504,7 +13512,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -13524,7 +13532,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -13544,7 +13552,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -13564,7 +13572,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -13584,7 +13592,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -13604,7 +13612,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -13624,7 +13632,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -13644,7 +13652,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -13664,7 +13672,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -13684,7 +13692,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -13701,7 +13709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -13718,7 +13726,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -13735,7 +13743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -13752,7 +13760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -13769,7 +13777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -13786,7 +13794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -13801,6 +13809,40 @@
       </c>
       <c r="E496" s="1" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D497" t="s">
+        <v>170</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D498" t="s">
+        <v>170</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -13841,17 +13883,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="146.1796875" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1045</v>
       </c>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/303_2025_whatsapp/github/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="918" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CDCB4D-C3BF-4B46-BBEF-B472BE5BCAAE}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E094E5C9-A7F1-4316-8F10-0F2E8A88070B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1138">
   <si>
     <t>Name</t>
   </si>
@@ -3428,6 +3428,21 @@
   </si>
   <si>
     <t>Chrissy</t>
+  </si>
+  <si>
+    <t>+65 9099 1683</t>
+  </si>
+  <si>
+    <t>Sheryl</t>
+  </si>
+  <si>
+    <t>UMW</t>
+  </si>
+  <si>
+    <t>+65 9025 0312</t>
+  </si>
+  <si>
+    <t>Jia Xin</t>
   </si>
 </sst>
 </file>
@@ -3604,6 +3619,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3903,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G498"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E499" sqref="E499"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13843,6 +13862,40 @@
       </c>
       <c r="E498" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D500" t="s">
+        <v>508</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/304_CNY2025_whatsapp/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1020" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E2B7403-D4F1-43DC-960C-D6C636E9E12C}"/>
+  <xr:revisionPtr revIDLastSave="1026" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77763980-433A-48FA-8547-064DA1C5CE2A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1169">
   <si>
     <t>Name</t>
   </si>
@@ -3533,6 +3533,9 @@
   </si>
   <si>
     <t>94576219</t>
+  </si>
+  <si>
+    <t>+65 8127 4328</t>
   </si>
 </sst>
 </file>
@@ -4045,24 +4048,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G512"/>
+  <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F513" sqref="F513"/>
+    <sheetView tabSelected="1" topLeftCell="A503" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D513" sqref="D513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4099,7 +4102,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7196,7 +7199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7876,7 +7879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -8036,7 +8039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8156,7 +8159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8496,7 +8499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8836,7 +8839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8876,7 +8879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8936,7 +8939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8956,7 +8959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8976,7 +8979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -9096,7 +9099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -9136,7 +9139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>489</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>491</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>492</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>493</v>
       </c>
@@ -9216,7 +9219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>494</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>496</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>497</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>498</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>500</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>501</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>502</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>503</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>504</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>505</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>506</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>507</v>
       </c>
@@ -9456,7 +9459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>508</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>509</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>254</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>255</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>294</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>295</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>489</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>490</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>256</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>257</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>258</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>259</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>260</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>261</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>262</v>
       </c>
@@ -9756,7 +9759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>263</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>264</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>265</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>266</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>267</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>268</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>269</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>270</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>271</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>272</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>273</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>274</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>275</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>276</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>277</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>278</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>279</v>
       </c>
@@ -10096,7 +10099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>280</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>281</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>282</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>283</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>284</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>285</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>286</v>
       </c>
@@ -10236,7 +10239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>287</v>
       </c>
@@ -10256,7 +10259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>288</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>289</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>290</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>291</v>
       </c>
@@ -10336,7 +10339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>292</v>
       </c>
@@ -10356,7 +10359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>293</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>296</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>297</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>298</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>299</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>300</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>301</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>302</v>
       </c>
@@ -10514,7 +10517,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>303</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>304</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>305</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>306</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>307</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>308</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>309</v>
       </c>
@@ -10654,7 +10657,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>310</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>311</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>312</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>313</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>314</v>
       </c>
@@ -10754,7 +10757,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>315</v>
       </c>
@@ -10774,7 +10777,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>316</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>317</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>318</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>319</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>320</v>
       </c>
@@ -10874,7 +10877,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>321</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>322</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>323</v>
       </c>
@@ -10934,7 +10937,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>324</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>325</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>326</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>327</v>
       </c>
@@ -11014,7 +11017,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>328</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>329</v>
       </c>
@@ -11054,7 +11057,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>330</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>331</v>
       </c>
@@ -11094,7 +11097,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>332</v>
       </c>
@@ -11114,7 +11117,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>333</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>334</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>335</v>
       </c>
@@ -11174,7 +11177,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>336</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>337</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>338</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>339</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>340</v>
       </c>
@@ -11274,7 +11277,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>341</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>342</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>343</v>
       </c>
@@ -11334,7 +11337,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>344</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>345</v>
       </c>
@@ -11374,7 +11377,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>346</v>
       </c>
@@ -11394,7 +11397,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>347</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>348</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>349</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>350</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>351</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>352</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>353</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>354</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>355</v>
       </c>
@@ -11574,7 +11577,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>356</v>
       </c>
@@ -11594,7 +11597,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>357</v>
       </c>
@@ -11614,7 +11617,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>358</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>359</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>360</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>361</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>362</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>363</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>364</v>
       </c>
@@ -11754,7 +11757,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>365</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>366</v>
       </c>
@@ -11794,7 +11797,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>367</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>368</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>369</v>
       </c>
@@ -11854,7 +11857,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>370</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>371</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>372</v>
       </c>
@@ -11914,7 +11917,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>373</v>
       </c>
@@ -11934,7 +11937,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>374</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>375</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>376</v>
       </c>
@@ -11994,7 +11997,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>377</v>
       </c>
@@ -12014,7 +12017,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>378</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>379</v>
       </c>
@@ -12054,7 +12057,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>380</v>
       </c>
@@ -12074,7 +12077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>381</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>382</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>383</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>384</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>385</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>386</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>387</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>388</v>
       </c>
@@ -12234,7 +12237,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>389</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>390</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>391</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>392</v>
       </c>
@@ -12314,7 +12317,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>393</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>394</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>395</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>396</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>397</v>
       </c>
@@ -12414,7 +12417,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>398</v>
       </c>
@@ -12434,7 +12437,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>399</v>
       </c>
@@ -12454,7 +12457,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>400</v>
       </c>
@@ -12474,7 +12477,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>401</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>402</v>
       </c>
@@ -12514,7 +12517,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>403</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>404</v>
       </c>
@@ -12554,7 +12557,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>405</v>
       </c>
@@ -12574,7 +12577,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>406</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>407</v>
       </c>
@@ -12614,7 +12617,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>408</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>409</v>
       </c>
@@ -12654,7 +12657,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>410</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>411</v>
       </c>
@@ -12694,7 +12697,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>412</v>
       </c>
@@ -12714,7 +12717,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>413</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>414</v>
       </c>
@@ -12754,7 +12757,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>415</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>416</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>417</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>418</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>419</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>420</v>
       </c>
@@ -12874,7 +12877,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>421</v>
       </c>
@@ -12894,7 +12897,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>422</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>423</v>
       </c>
@@ -12934,7 +12937,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>424</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>425</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>426</v>
       </c>
@@ -12994,7 +12997,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>427</v>
       </c>
@@ -13014,7 +13017,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>428</v>
       </c>
@@ -13034,7 +13037,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>429</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>430</v>
       </c>
@@ -13074,7 +13077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>431</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>432</v>
       </c>
@@ -13114,7 +13117,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>433</v>
       </c>
@@ -13134,7 +13137,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>434</v>
       </c>
@@ -13154,7 +13157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>435</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>436</v>
       </c>
@@ -13194,7 +13197,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>437</v>
       </c>
@@ -13214,7 +13217,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>438</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>439</v>
       </c>
@@ -13254,7 +13257,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>440</v>
       </c>
@@ -13274,7 +13277,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>441</v>
       </c>
@@ -13294,7 +13297,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>442</v>
       </c>
@@ -13314,7 +13317,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>443</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>444</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>445</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>446</v>
       </c>
@@ -13394,7 +13397,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>447</v>
       </c>
@@ -13414,7 +13417,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>448</v>
       </c>
@@ -13434,7 +13437,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>449</v>
       </c>
@@ -13454,7 +13457,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>450</v>
       </c>
@@ -13474,7 +13477,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>451</v>
       </c>
@@ -13494,7 +13497,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>452</v>
       </c>
@@ -13514,7 +13517,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>453</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>454</v>
       </c>
@@ -13554,7 +13557,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>455</v>
       </c>
@@ -13574,7 +13577,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>456</v>
       </c>
@@ -13594,7 +13597,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>457</v>
       </c>
@@ -13614,7 +13617,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>458</v>
       </c>
@@ -13634,7 +13637,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>459</v>
       </c>
@@ -13654,7 +13657,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>460</v>
       </c>
@@ -13674,7 +13677,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>461</v>
       </c>
@@ -13694,7 +13697,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>462</v>
       </c>
@@ -13714,7 +13717,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>463</v>
       </c>
@@ -13734,7 +13737,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>464</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>465</v>
       </c>
@@ -13774,7 +13777,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>466</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>467</v>
       </c>
@@ -13814,7 +13817,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>468</v>
       </c>
@@ -13834,7 +13837,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>490</v>
       </c>
@@ -13854,7 +13857,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>495</v>
       </c>
@@ -13874,7 +13877,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>499</v>
       </c>
@@ -13894,7 +13897,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>469</v>
       </c>
@@ -13914,7 +13917,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>470</v>
       </c>
@@ -13934,7 +13937,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>471</v>
       </c>
@@ -13954,7 +13957,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>472</v>
       </c>
@@ -13974,7 +13977,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>473</v>
       </c>
@@ -13994,7 +13997,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>474</v>
       </c>
@@ -14014,7 +14017,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>475</v>
       </c>
@@ -14034,7 +14037,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>476</v>
       </c>
@@ -14054,7 +14057,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>477</v>
       </c>
@@ -14074,7 +14077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>478</v>
       </c>
@@ -14094,7 +14097,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>479</v>
       </c>
@@ -14114,7 +14117,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>480</v>
       </c>
@@ -14134,7 +14137,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>481</v>
       </c>
@@ -14154,7 +14157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>482</v>
       </c>
@@ -14174,7 +14177,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>483</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>484</v>
       </c>
@@ -14214,7 +14217,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>485</v>
       </c>
@@ -14234,7 +14237,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>486</v>
       </c>
@@ -14254,7 +14257,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>487</v>
       </c>
@@ -14274,7 +14277,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>488</v>
       </c>
@@ -14291,6 +14294,26 @@
         <v>855</v>
       </c>
       <c r="F512" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>489</v>
+      </c>
+      <c r="B513" t="s">
+        <v>417</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D513" t="s">
+        <v>184</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F513" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -14335,17 +14358,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="109.7265625" customWidth="1"/>
+    <col min="2" max="2" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>1159</v>
       </c>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/304_CNY2025_whatsapp/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1026" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77763980-433A-48FA-8547-064DA1C5CE2A}"/>
+  <xr:revisionPtr revIDLastSave="1028" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E4A3868-8773-46FA-834D-6E33FD9F4C8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -3745,10 +3745,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4050,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
   <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D513" sqref="D513"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7056,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/304_CNY2025_whatsapp/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1028" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E4A3868-8773-46FA-834D-6E33FD9F4C8A}"/>
+  <xr:revisionPtr revIDLastSave="1035" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F10498-C0C0-47EE-863E-13E5EC3C6DB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -3745,6 +3745,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4046,22 +4050,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
   <dimension ref="A1:G513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4215,7 +4219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4255,7 +4259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4375,7 +4379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4695,7 +4699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4935,7 +4939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5175,7 +5179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5295,7 +5299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5495,7 +5499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5575,7 +5579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5875,7 +5879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5935,7 +5939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6015,7 +6019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6035,7 +6039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6135,7 +6139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6375,7 +6379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6535,7 +6539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6675,7 +6679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6695,7 +6699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6715,7 +6719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6775,7 +6779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6795,7 +6799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6855,7 +6859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -7075,7 +7079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7215,7 +7219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7295,7 +7299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7475,7 +7479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7535,7 +7539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7615,7 +7619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7695,7 +7699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -8055,7 +8059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -8095,7 +8099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8215,7 +8219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8275,7 +8279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8315,7 +8319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8395,7 +8399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8435,7 +8439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8455,7 +8459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8475,7 +8479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8555,7 +8559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8615,7 +8619,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8635,7 +8639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8655,7 +8659,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8735,7 +8739,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8775,7 +8779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8795,7 +8799,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8855,7 +8859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8875,7 +8879,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8895,7 +8899,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8955,7 +8959,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8975,7 +8979,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -9055,7 +9059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -9095,7 +9099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -9135,7 +9139,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>489</v>
       </c>
@@ -9155,7 +9159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>491</v>
       </c>
@@ -9175,7 +9179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>492</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>493</v>
       </c>
@@ -9215,7 +9219,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>494</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>496</v>
       </c>
@@ -9255,7 +9259,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>497</v>
       </c>
@@ -9275,7 +9279,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>498</v>
       </c>
@@ -9295,7 +9299,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>500</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>501</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>502</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>503</v>
       </c>
@@ -9375,7 +9379,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>504</v>
       </c>
@@ -9395,7 +9399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>505</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>506</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>507</v>
       </c>
@@ -9455,7 +9459,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>508</v>
       </c>
@@ -9475,7 +9479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>509</v>
       </c>
@@ -9495,38 +9499,38 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
+        <v>489</v>
+      </c>
+      <c r="B273" t="s">
+        <v>417</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D273" t="s">
+        <v>184</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
         <v>254</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>454</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C274" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D274" t="s">
         <v>457</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>255</v>
-      </c>
-      <c r="B274" t="s">
-        <v>985</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1089</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>456</v>
@@ -9535,18 +9539,18 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B275" t="s">
-        <v>550</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>551</v>
+        <v>985</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>984</v>
       </c>
       <c r="D275" t="s">
-        <v>546</v>
+        <v>1089</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>456</v>
@@ -9555,18 +9559,18 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B276" t="s">
-        <v>66</v>
+        <v>550</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D276" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>456</v>
@@ -9575,18 +9579,18 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <v>489</v>
+        <v>295</v>
       </c>
       <c r="B277" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>1162</v>
+        <v>66</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="D277" t="s">
-        <v>856</v>
+        <v>493</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>456</v>
@@ -9595,15 +9599,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B278" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D278" t="s">
         <v>856</v>
@@ -9615,75 +9619,75 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
+        <v>490</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D279" t="s">
+        <v>856</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
         <v>256</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>458</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C280" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D280" t="s">
         <v>461</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+      <c r="E280" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
         <v>257</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B281" t="s">
         <v>462</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C281" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D281" t="s">
         <v>464</v>
       </c>
-      <c r="E280" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+      <c r="E281" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
         <v>258</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>465</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C282" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="D281" t="s">
-        <v>467</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>259</v>
-      </c>
-      <c r="B282" t="s">
-        <v>468</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="D282" t="s">
         <v>467</v>
@@ -9695,135 +9699,135 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
+        <v>259</v>
+      </c>
+      <c r="B283" t="s">
+        <v>468</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D283" t="s">
+        <v>467</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
         <v>260</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B284" t="s">
         <v>470</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C284" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D284" t="s">
         <v>472</v>
       </c>
-      <c r="E283" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+      <c r="E284" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
         <v>261</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B285" t="s">
         <v>473</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C285" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D285" t="s">
         <v>475</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+      <c r="E285" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
         <v>262</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>476</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C286" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D286" t="s">
         <v>24</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+      <c r="E286" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
         <v>263</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>478</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C287" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D287" t="s">
         <v>480</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+      <c r="E287" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
         <v>264</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>481</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C288" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D288" t="s">
         <v>483</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+      <c r="E288" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
         <v>265</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>484</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C289" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="D288" t="s">
-        <v>486</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>266</v>
-      </c>
-      <c r="B289" t="s">
-        <v>100</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="D289" t="s">
         <v>486</v>
@@ -9835,195 +9839,195 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
+        <v>266</v>
+      </c>
+      <c r="B290" t="s">
+        <v>100</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D290" t="s">
+        <v>486</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
         <v>267</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>488</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C291" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D291" t="s">
         <v>490</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+      <c r="E291" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
         <v>268</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>491</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C292" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D292" t="s">
         <v>493</v>
       </c>
-      <c r="E291" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+      <c r="E292" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
         <v>269</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>494</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C293" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D293" t="s">
         <v>496</v>
       </c>
-      <c r="E292" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+      <c r="E293" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
         <v>270</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>497</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C294" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D294" t="s">
         <v>499</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+      <c r="E294" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
         <v>271</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>398</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C295" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D295" t="s">
         <v>50</v>
       </c>
-      <c r="E294" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
+      <c r="E295" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
         <v>272</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B296" t="s">
         <v>59</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C296" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D296" t="s">
         <v>502</v>
       </c>
-      <c r="E295" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
+      <c r="E296" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
         <v>273</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>412</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D297" t="s">
         <v>504</v>
       </c>
-      <c r="E296" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F296" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+      <c r="E297" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
         <v>274</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>505</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C298" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D298" t="s">
         <v>507</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+      <c r="E298" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
         <v>275</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>508</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C299" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="D298" t="s">
-        <v>510</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>276</v>
-      </c>
-      <c r="B299" t="s">
-        <v>511</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D299" t="s">
         <v>510</v>
@@ -10035,115 +10039,115 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
+        <v>276</v>
+      </c>
+      <c r="B300" t="s">
+        <v>511</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D300" t="s">
+        <v>510</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
         <v>277</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>189</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C301" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D301" t="s">
         <v>514</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
+      <c r="E301" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
         <v>278</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>515</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C302" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D302" t="s">
         <v>517</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+      <c r="E302" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
         <v>279</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>518</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C303" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D303" t="s">
         <v>520</v>
       </c>
-      <c r="E302" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
+      <c r="E303" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
         <v>280</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>521</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C304" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D304" t="s">
         <v>108</v>
       </c>
-      <c r="E303" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+      <c r="E304" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
         <v>281</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>177</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C305" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="D304" t="s">
-        <v>524</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>282</v>
-      </c>
-      <c r="B305" t="s">
-        <v>525</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="D305" t="s">
         <v>524</v>
@@ -10155,35 +10159,35 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
+        <v>282</v>
+      </c>
+      <c r="B306" t="s">
+        <v>525</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D306" t="s">
+        <v>524</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
         <v>283</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>527</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C307" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="D306" t="s">
-        <v>529</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>284</v>
-      </c>
-      <c r="B307" t="s">
-        <v>270</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="D307" t="s">
         <v>529</v>
@@ -10195,15 +10199,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" t="s">
-        <v>278</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>531</v>
+        <v>270</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="D308" t="s">
         <v>529</v>
@@ -10215,15 +10219,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B309" t="s">
-        <v>532</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>533</v>
+        <v>278</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="D309" t="s">
         <v>529</v>
@@ -10235,15 +10239,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>189</v>
+        <v>532</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D310" t="s">
         <v>529</v>
@@ -10255,15 +10259,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B311" t="s">
-        <v>535</v>
+        <v>189</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D311" t="s">
         <v>529</v>
@@ -10275,15 +10279,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B312" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D312" t="s">
         <v>529</v>
@@ -10295,15 +10299,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B313" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D313" t="s">
         <v>529</v>
@@ -10315,1253 +10319,1253 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
+        <v>290</v>
+      </c>
+      <c r="B314" t="s">
+        <v>539</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D314" t="s">
+        <v>529</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
         <v>291</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>541</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C315" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D315" t="s">
         <v>543</v>
       </c>
-      <c r="E314" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
+      <c r="E315" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
         <v>292</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>544</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C316" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D316" t="s">
         <v>546</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
+      <c r="E316" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
         <v>293</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>547</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C317" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D317" t="s">
         <v>549</v>
       </c>
-      <c r="E316" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
+      <c r="E317" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
         <v>296</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>553</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C318" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D318" t="s">
         <v>514</v>
       </c>
-      <c r="E317" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+      <c r="E318" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
         <v>297</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>555</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C319" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D319" t="s">
         <v>557</v>
       </c>
-      <c r="E318" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+      <c r="E319" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
         <v>298</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>558</v>
       </c>
-      <c r="C319" s="4"/>
-      <c r="D319" t="s">
+      <c r="C320" s="4"/>
+      <c r="D320" t="s">
         <v>559</v>
       </c>
-      <c r="E319" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+      <c r="E320" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
         <v>299</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>508</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C321" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>561</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
+      <c r="E321" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
         <v>300</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>51</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C322" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D322" t="s">
         <v>563</v>
       </c>
-      <c r="E321" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+      <c r="E322" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
         <v>301</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>564</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C323" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" t="s">
         <v>566</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
+      <c r="E323" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
         <v>302</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>470</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C324" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D324" t="s">
         <v>568</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
+      <c r="E324" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
         <v>303</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>569</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C325" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D325" t="s">
         <v>571</v>
       </c>
-      <c r="E324" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
+      <c r="E325" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
         <v>304</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>572</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C326" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D326" t="s">
         <v>574</v>
       </c>
-      <c r="E325" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
+      <c r="E326" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
         <v>305</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>575</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C327" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D327" t="s">
         <v>577</v>
       </c>
-      <c r="E326" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
+      <c r="E327" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
         <v>306</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>578</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C328" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D328" t="s">
         <v>580</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
+      <c r="E328" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
         <v>307</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>581</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C329" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D329" t="s">
         <v>583</v>
       </c>
-      <c r="E328" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
+      <c r="E329" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
         <v>308</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>584</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C330" s="4">
         <v>6596622600</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D330" t="s">
         <v>585</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F329" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
+      <c r="E330" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
         <v>309</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>586</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C331" s="4">
         <v>6588000050</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D331" t="s">
         <v>587</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
+      <c r="E331" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
         <v>310</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>189</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C332" s="4">
         <v>6597523882</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D332" t="s">
         <v>588</v>
       </c>
-      <c r="E331" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
+      <c r="E332" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
         <v>311</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>590</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C333" s="4">
         <v>6597397583</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D333" t="s">
         <v>529</v>
       </c>
-      <c r="E332" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+      <c r="E333" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
         <v>312</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>592</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C334" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D334" t="s">
         <v>594</v>
       </c>
-      <c r="E333" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
+      <c r="E334" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
         <v>313</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>595</v>
       </c>
-      <c r="C334" s="4" t="s">
+      <c r="C335" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D335" t="s">
         <v>597</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
+      <c r="E335" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
         <v>314</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>598</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="C336" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D336" t="s">
         <v>600</v>
       </c>
-      <c r="E335" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
+      <c r="E336" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
         <v>315</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>601</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="C337" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D337" t="s">
         <v>603</v>
       </c>
-      <c r="E336" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+      <c r="E337" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
         <v>316</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>207</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C338" s="4">
         <v>6598574086</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" t="s">
         <v>604</v>
       </c>
-      <c r="E337" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F337" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
+      <c r="E338" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
         <v>317</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>390</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C339" s="4">
         <v>6590671674</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D339" t="s">
         <v>605</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+      <c r="E339" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
         <v>318</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>606</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C340" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D340" t="s">
         <v>608</v>
       </c>
-      <c r="E339" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
+      <c r="E340" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
         <v>319</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>591</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C341" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D341" t="s">
         <v>610</v>
       </c>
-      <c r="E340" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
+      <c r="E341" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
         <v>320</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>33</v>
       </c>
-      <c r="C341" s="4" t="s">
+      <c r="C342" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D342" t="s">
         <v>612</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
+      <c r="E342" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
         <v>321</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B343" t="s">
         <v>586</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="C343" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D343" t="s">
         <v>614</v>
       </c>
-      <c r="E342" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+      <c r="E343" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
         <v>322</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>615</v>
       </c>
-      <c r="C343" s="4" t="s">
+      <c r="C344" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D344" t="s">
         <v>499</v>
       </c>
-      <c r="E343" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
+      <c r="E344" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
         <v>323</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>617</v>
       </c>
-      <c r="C344" s="4" t="s">
+      <c r="C345" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D345" t="s">
         <v>619</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F344" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
+      <c r="E345" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
         <v>324</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>620</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="C346" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D346" t="s">
         <v>529</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+      <c r="E346" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
         <v>325</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>622</v>
       </c>
-      <c r="C346" s="4" t="s">
+      <c r="C347" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D347" t="s">
         <v>624</v>
       </c>
-      <c r="E346" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
+      <c r="E347" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
         <v>326</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B348" t="s">
         <v>625</v>
       </c>
-      <c r="C347" s="4" t="s">
+      <c r="C348" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D348" t="s">
         <v>627</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
+      <c r="E348" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
         <v>327</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B349" t="s">
         <v>628</v>
       </c>
-      <c r="C348" s="4" t="s">
+      <c r="C349" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D349" t="s">
         <v>630</v>
       </c>
-      <c r="E348" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F348" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
+      <c r="E349" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
         <v>328</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B350" t="s">
         <v>631</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="C350" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D350" t="s">
         <v>633</v>
       </c>
-      <c r="E349" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F349" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
+      <c r="E350" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
         <v>329</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B351" t="s">
         <v>634</v>
       </c>
-      <c r="C350" s="4" t="s">
+      <c r="C351" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D351" t="s">
         <v>636</v>
       </c>
-      <c r="E350" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
+      <c r="E351" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
         <v>330</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B352" t="s">
         <v>637</v>
       </c>
-      <c r="C351" s="4" t="s">
+      <c r="C352" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D352" t="s">
         <v>639</v>
       </c>
-      <c r="E351" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
+      <c r="E352" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
         <v>331</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>634</v>
       </c>
-      <c r="C352" s="4" t="s">
+      <c r="C353" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D353" t="s">
         <v>641</v>
       </c>
-      <c r="E352" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+      <c r="E353" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
         <v>332</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>642</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C354" s="4">
         <v>6597354898</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D354" t="s">
         <v>467</v>
       </c>
-      <c r="E353" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+      <c r="E354" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
         <v>333</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>572</v>
       </c>
-      <c r="C354" s="4" t="s">
+      <c r="C355" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D355" t="s">
         <v>514</v>
       </c>
-      <c r="E354" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+      <c r="E355" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
         <v>334</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B356" t="s">
         <v>644</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C356" s="4">
         <v>6591061368</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D356" t="s">
         <v>645</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
+      <c r="E356" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
         <v>335</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>646</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C357" s="4">
         <v>6596732504</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D357" t="s">
         <v>95</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
+      <c r="E357" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
         <v>336</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B358" t="s">
         <v>647</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C358" s="4">
         <v>6596786781</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D358" t="s">
         <v>648</v>
       </c>
-      <c r="E357" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
+      <c r="E358" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
         <v>337</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B359" t="s">
         <v>649</v>
       </c>
-      <c r="C358" s="4" t="s">
+      <c r="C359" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D359" t="s">
         <v>651</v>
       </c>
-      <c r="E358" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+      <c r="E359" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
         <v>338</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B360" t="s">
         <v>652</v>
       </c>
-      <c r="C359" s="4" t="s">
+      <c r="C360" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D360" t="s">
         <v>654</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F359" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+      <c r="E360" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
         <v>339</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B361" t="s">
         <v>655</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C361" s="4">
         <v>6596235793</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D361" t="s">
         <v>656</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F360" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
+      <c r="E361" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
         <v>340</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B362" t="s">
         <v>657</v>
       </c>
-      <c r="C361" s="4" t="s">
+      <c r="C362" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D362" t="s">
         <v>659</v>
       </c>
-      <c r="E361" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+      <c r="E362" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
         <v>341</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B363" t="s">
         <v>660</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C363" s="4">
         <v>6587950546</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D363" t="s">
         <v>661</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+      <c r="E363" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
         <v>342</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B364" t="s">
         <v>662</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="C364" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D364" t="s">
         <v>507</v>
       </c>
-      <c r="E363" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
+      <c r="E364" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
         <v>343</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B365" t="s">
         <v>664</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C365" s="4">
         <v>97671799</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D365" t="s">
         <v>665</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
+      <c r="E365" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
         <v>344</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>666</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C366" s="4">
         <v>91919860</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D366" t="s">
         <v>667</v>
       </c>
-      <c r="E365" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
+      <c r="E366" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
         <v>345</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B367" t="s">
         <v>31</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C367" s="4">
         <v>6598380822</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D367" t="s">
         <v>668</v>
       </c>
-      <c r="E366" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
+      <c r="E367" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
         <v>346</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B368" t="s">
         <v>669</v>
       </c>
-      <c r="C367" s="4" t="s">
+      <c r="C368" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D368" t="s">
         <v>671</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F367" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
+      <c r="E368" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
         <v>347</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B369" t="s">
         <v>51</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C369" s="4">
         <v>6594788102</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D369" t="s">
         <v>672</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F368" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
+      <c r="E369" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
         <v>348</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B370" t="s">
         <v>673</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C370" s="4">
         <v>6598805269</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D370" t="s">
         <v>674</v>
       </c>
-      <c r="E369" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F369" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
+      <c r="E370" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
         <v>349</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B371" t="s">
         <v>675</v>
       </c>
-      <c r="C370" s="4" t="s">
+      <c r="C371" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D371" t="s">
         <v>677</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F370" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
+      <c r="E371" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
         <v>350</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B372" t="s">
         <v>678</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C372" s="4">
         <v>6597396531</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D372" t="s">
         <v>597</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
+      <c r="E372" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
         <v>351</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B373" t="s">
         <v>679</v>
       </c>
-      <c r="C372" s="4" t="s">
+      <c r="C373" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D373" t="s">
         <v>529</v>
       </c>
-      <c r="E372" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
+      <c r="E373" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
         <v>352</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B374" t="s">
         <v>681</v>
       </c>
-      <c r="C373" s="4" t="s">
+      <c r="C374" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D374" t="s">
         <v>683</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F373" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
+      <c r="E374" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
         <v>353</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B375" t="s">
         <v>684</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C375" s="4">
         <v>6596646306</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D375" t="s">
         <v>685</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
+      <c r="E375" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
         <v>354</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B376" t="s">
         <v>686</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C376" s="4">
         <v>6590851202</v>
-      </c>
-      <c r="D375" t="s">
-        <v>687</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F375" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>355</v>
-      </c>
-      <c r="B376" t="s">
-        <v>51</v>
-      </c>
-      <c r="C376" s="4">
-        <v>6597512655</v>
       </c>
       <c r="D376" t="s">
         <v>687</v>
@@ -11573,1795 +11577,1795 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
+        <v>355</v>
+      </c>
+      <c r="B377" t="s">
+        <v>51</v>
+      </c>
+      <c r="C377" s="4">
+        <v>6597512655</v>
+      </c>
+      <c r="D377" t="s">
+        <v>687</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
         <v>356</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B378" t="s">
         <v>224</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C378" s="4">
         <v>6596680685</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D378" t="s">
         <v>688</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
+      <c r="E378" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
         <v>357</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B379" t="s">
         <v>689</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C379" s="4">
         <v>6582927996</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D379" t="s">
         <v>507</v>
       </c>
-      <c r="E378" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F378" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
+      <c r="E379" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
         <v>358</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B380" t="s">
         <v>690</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C380" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D380" t="s">
         <v>692</v>
       </c>
-      <c r="E379" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
+      <c r="E380" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
         <v>359</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B381" t="s">
         <v>100</v>
       </c>
-      <c r="C380" s="3">
+      <c r="C381" s="3">
         <v>6581182151</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D381" t="s">
         <v>693</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F380" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
+      <c r="E381" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
         <v>360</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B382" t="s">
         <v>592</v>
       </c>
-      <c r="C381" s="3">
+      <c r="C382" s="3">
         <v>6596775760</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D382" t="s">
         <v>73</v>
       </c>
-      <c r="E381" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F381" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
+      <c r="E382" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
         <v>361</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B383" t="s">
         <v>694</v>
       </c>
-      <c r="C382" s="3">
+      <c r="C383" s="3">
         <v>6598389906</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D383" t="s">
         <v>95</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F382" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+      <c r="E383" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
         <v>362</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>695</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C384" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D384" t="s">
         <v>697</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F383" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
+      <c r="E384" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
         <v>363</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B385" t="s">
         <v>698</v>
       </c>
-      <c r="C384" s="3">
+      <c r="C385" s="3">
         <v>6596459656</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D385" t="s">
         <v>699</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
+      <c r="E385" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
         <v>364</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>700</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C386" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D386" t="s">
         <v>702</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F385" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
+      <c r="E386" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
         <v>365</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B387" t="s">
         <v>703</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C387" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D387" t="s">
         <v>705</v>
       </c>
-      <c r="E386" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F386" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+      <c r="E387" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
         <v>366</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
         <v>468</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C388" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D388" t="s">
         <v>529</v>
       </c>
-      <c r="E387" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F387" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
+      <c r="E388" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
         <v>367</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B389" t="s">
         <v>707</v>
       </c>
-      <c r="C388" s="3">
+      <c r="C389" s="3">
         <v>6581114518</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D389" t="s">
         <v>589</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F388" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+      <c r="E389" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
         <v>368</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>708</v>
       </c>
-      <c r="C389" s="3">
+      <c r="C390" s="3">
         <v>6596820482</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D390" t="s">
         <v>709</v>
       </c>
-      <c r="E389" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F389" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
+      <c r="E390" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
         <v>369</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B391" t="s">
         <v>710</v>
       </c>
-      <c r="C390" s="3">
+      <c r="C391" s="3">
         <v>6590525965</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D391" t="s">
         <v>711</v>
       </c>
-      <c r="E390" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F390" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
+      <c r="E391" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
         <v>370</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B392" t="s">
         <v>712</v>
       </c>
-      <c r="C391" s="3" t="s">
+      <c r="C392" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D392" t="s">
         <v>639</v>
       </c>
-      <c r="E391" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F391" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
+      <c r="E392" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
         <v>371</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B393" t="s">
         <v>714</v>
       </c>
-      <c r="C392" s="3">
+      <c r="C393" s="3">
         <v>6593709567</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D393" t="s">
         <v>674</v>
       </c>
-      <c r="E392" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F392" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
+      <c r="E393" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
         <v>372</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B394" t="s">
         <v>143</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C394" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D394" t="s">
         <v>559</v>
       </c>
-      <c r="E393" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
+      <c r="E394" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
         <v>373</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B395" t="s">
         <v>716</v>
       </c>
-      <c r="C394" s="3">
+      <c r="C395" s="3">
         <v>6594892864</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D395" t="s">
         <v>717</v>
       </c>
-      <c r="E394" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F394" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
+      <c r="E395" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
         <v>374</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B396" t="s">
         <v>718</v>
       </c>
-      <c r="C395" s="3" t="s">
+      <c r="C396" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D396" t="s">
         <v>674</v>
       </c>
-      <c r="E395" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F395" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
+      <c r="E396" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
         <v>375</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B397" t="s">
         <v>720</v>
       </c>
-      <c r="C396" s="3">
+      <c r="C397" s="3">
         <v>6584368000</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D397" t="s">
         <v>699</v>
       </c>
-      <c r="E396" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
+      <c r="E397" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
         <v>376</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>721</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C398" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D398" t="s">
         <v>723</v>
       </c>
-      <c r="E397" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F397" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
+      <c r="E398" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
         <v>377</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B399" t="s">
         <v>724</v>
       </c>
-      <c r="C398" s="3" t="s">
+      <c r="C399" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D399" t="s">
         <v>726</v>
       </c>
-      <c r="E398" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F398" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
+      <c r="E399" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
         <v>378</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B400" t="s">
         <v>508</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C400" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D400" t="s">
         <v>728</v>
       </c>
-      <c r="E399" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F399" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
+      <c r="E400" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
         <v>379</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B401" t="s">
         <v>412</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="C401" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D401" t="s">
         <v>730</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F400" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
+      <c r="E401" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A402" s="1">
         <v>380</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B402" t="s">
         <v>468</v>
       </c>
-      <c r="C401" s="3" t="s">
+      <c r="C402" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D402" t="s">
         <v>624</v>
       </c>
-      <c r="E401" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F401" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
+      <c r="E402" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A403" s="1">
         <v>381</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B403" t="s">
         <v>270</v>
       </c>
-      <c r="C402" s="3" t="s">
+      <c r="C403" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D403" t="s">
         <v>733</v>
       </c>
-      <c r="E402" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F402" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
+      <c r="E403" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A404" s="1">
         <v>382</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B404" t="s">
         <v>100</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C404" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D404" t="s">
         <v>735</v>
       </c>
-      <c r="E403" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
+      <c r="E404" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A405" s="1">
         <v>383</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B405" t="s">
         <v>736</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C405" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D405" t="s">
         <v>738</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F404" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
+      <c r="E405" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A406" s="1">
         <v>384</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B406" t="s">
         <v>739</v>
       </c>
-      <c r="C405" s="3" t="s">
+      <c r="C406" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D406" t="s">
         <v>741</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
+      <c r="E406" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A407" s="1">
         <v>385</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B407" t="s">
         <v>742</v>
       </c>
-      <c r="C406" s="3">
+      <c r="C407" s="3">
         <v>6592328795</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D407" t="s">
         <v>743</v>
       </c>
-      <c r="E406" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
+      <c r="E407" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A408" s="1">
         <v>386</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B408" t="s">
         <v>66</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C408" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D408" t="s">
         <v>745</v>
       </c>
-      <c r="E407" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F407" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
+      <c r="E408" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A409" s="1">
         <v>387</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B409" t="s">
         <v>295</v>
       </c>
-      <c r="C408" s="3">
+      <c r="C409" s="3">
         <v>6597367913</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D409" t="s">
         <v>746</v>
       </c>
-      <c r="E408" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
+      <c r="E409" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A410" s="1">
         <v>388</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B410" t="s">
         <v>31</v>
       </c>
-      <c r="C409" s="3">
+      <c r="C410" s="3">
         <v>6590211700</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D410" t="s">
         <v>747</v>
       </c>
-      <c r="E409" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
+      <c r="E410" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A411" s="1">
         <v>389</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B411" t="s">
         <v>748</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C411" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D411" t="s">
         <v>750</v>
       </c>
-      <c r="E410" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
+      <c r="E411" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A412" s="1">
         <v>390</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B412" t="s">
         <v>751</v>
       </c>
-      <c r="C411" s="3">
+      <c r="C412" s="3">
         <v>6598178114</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D412" t="s">
         <v>752</v>
       </c>
-      <c r="E411" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F411" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
+      <c r="E412" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A413" s="1">
         <v>391</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B413" t="s">
         <v>398</v>
       </c>
-      <c r="C412" s="3">
+      <c r="C413" s="3">
         <v>6597407339</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D413" t="s">
         <v>688</v>
       </c>
-      <c r="E412" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F412" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
+      <c r="E413" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A414" s="1">
         <v>392</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B414" t="s">
         <v>753</v>
       </c>
-      <c r="C413" s="3">
+      <c r="C414" s="3">
         <v>6590628363</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D414" t="s">
         <v>754</v>
       </c>
-      <c r="E413" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F413" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
+      <c r="E414" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A415" s="1">
         <v>393</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>755</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C415" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D415" t="s">
         <v>688</v>
       </c>
-      <c r="E414" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F414" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
+      <c r="E415" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A416" s="1">
         <v>394</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B416" t="s">
         <v>240</v>
       </c>
-      <c r="C415" s="3" t="s">
+      <c r="C416" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D416" t="s">
         <v>758</v>
       </c>
-      <c r="E415" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F415" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
+      <c r="E416" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A417" s="1">
         <v>395</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B417" t="s">
         <v>759</v>
       </c>
-      <c r="C416" s="3" t="s">
+      <c r="C417" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D417" t="s">
         <v>761</v>
       </c>
-      <c r="E416" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F416" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
+      <c r="E417" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A418" s="1">
         <v>396</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>762</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C418" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D418" t="s">
         <v>764</v>
       </c>
-      <c r="E417" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F417" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
+      <c r="E418" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A419" s="1">
         <v>397</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B419" t="s">
         <v>458</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C419" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D419" t="s">
         <v>766</v>
       </c>
-      <c r="E418" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F418" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
+      <c r="E419" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A420" s="1">
         <v>398</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B420" t="s">
         <v>564</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C420" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D420" t="s">
         <v>768</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F419" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
+      <c r="E420" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A421" s="1">
         <v>399</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B421" t="s">
         <v>253</v>
       </c>
-      <c r="C420" s="3" t="s">
+      <c r="C421" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D421" t="s">
         <v>770</v>
       </c>
-      <c r="E420" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F420" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
+      <c r="E421" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A422" s="1">
         <v>400</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B422" t="s">
         <v>771</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C422" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D422" t="s">
         <v>507</v>
       </c>
-      <c r="E421" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F421" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
+      <c r="E422" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A423" s="1">
         <v>401</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B423" t="s">
         <v>773</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C423" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D423" t="s">
         <v>775</v>
       </c>
-      <c r="E422" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F422" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="1">
+      <c r="E423" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A424" s="1">
         <v>402</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B424" t="s">
         <v>476</v>
       </c>
-      <c r="C423" s="3" t="s">
+      <c r="C424" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D424" t="s">
         <v>777</v>
       </c>
-      <c r="E423" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F423" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="1">
+      <c r="E424" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A425" s="1">
         <v>403</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B425" t="s">
         <v>778</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="C425" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D425" t="s">
         <v>780</v>
       </c>
-      <c r="E424" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F424" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="1">
+      <c r="E425" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A426" s="1">
         <v>404</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B426" t="s">
         <v>781</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C426" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D426" t="s">
         <v>783</v>
       </c>
-      <c r="E425" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F425" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="1">
+      <c r="E426" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A427" s="1">
         <v>405</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B427" t="s">
         <v>784</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C427" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D427" t="s">
         <v>786</v>
       </c>
-      <c r="E426" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F426" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="1">
+      <c r="E427" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A428" s="1">
         <v>406</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B428" t="s">
         <v>787</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C428" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D428" t="s">
         <v>472</v>
       </c>
-      <c r="E427" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F427" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="1">
+      <c r="E428" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A429" s="1">
         <v>407</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B429" t="s">
         <v>59</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C429" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D429" t="s">
         <v>790</v>
       </c>
-      <c r="E428" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F428" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
+      <c r="E429" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A430" s="1">
         <v>408</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B430" t="s">
         <v>703</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C430" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D430" t="s">
         <v>792</v>
       </c>
-      <c r="E429" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F429" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="1">
+      <c r="E430" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A431" s="1">
         <v>409</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B431" t="s">
         <v>148</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C431" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D431" t="s">
         <v>794</v>
       </c>
-      <c r="E430" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F430" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
+      <c r="E431" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A432" s="1">
         <v>410</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B432" t="s">
         <v>295</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C432" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D432" t="s">
         <v>796</v>
       </c>
-      <c r="E431" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F431" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
+      <c r="E432" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A433" s="1">
         <v>411</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B433" t="s">
         <v>797</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C433" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D433" t="s">
         <v>799</v>
       </c>
-      <c r="E432" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F432" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
+      <c r="E433" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A434" s="1">
         <v>412</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B434" t="s">
         <v>800</v>
       </c>
-      <c r="C433" s="3" t="s">
+      <c r="C434" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D434" t="s">
         <v>802</v>
       </c>
-      <c r="E433" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F433" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="1">
+      <c r="E434" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A435" s="1">
         <v>413</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B435" t="s">
         <v>226</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C435" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D435" t="s">
         <v>804</v>
       </c>
-      <c r="E434" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F434" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="1">
+      <c r="E435" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A436" s="1">
         <v>414</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B436" t="s">
         <v>805</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C436" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D436" t="s">
         <v>807</v>
       </c>
-      <c r="E435" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F435" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="1">
+      <c r="E436" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A437" s="1">
         <v>415</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B437" t="s">
         <v>808</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="C437" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D437" t="s">
         <v>483</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F436" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="1">
+      <c r="E437" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A438" s="1">
         <v>416</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B438" t="s">
         <v>742</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C438" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D438" t="s">
         <v>743</v>
       </c>
-      <c r="E437" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F437" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="1">
+      <c r="E438" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A439" s="1">
         <v>417</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B439" t="s">
         <v>724</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D439" t="s">
         <v>812</v>
       </c>
-      <c r="E438" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F438" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
+      <c r="E439" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A440" s="1">
         <v>418</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B440" t="s">
         <v>666</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C440" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D440" t="s">
         <v>733</v>
       </c>
-      <c r="E439" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F439" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
+      <c r="E440" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A441" s="1">
         <v>419</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B441" t="s">
         <v>814</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="C441" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D441" t="s">
         <v>816</v>
       </c>
-      <c r="E440" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F440" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="1">
+      <c r="E441" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A442" s="1">
         <v>420</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B442" t="s">
         <v>817</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="C442" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D442" t="s">
         <v>819</v>
       </c>
-      <c r="E441" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F441" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
+      <c r="E442" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A443" s="1">
         <v>421</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B443" t="s">
         <v>508</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="C443" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D443" t="s">
         <v>821</v>
       </c>
-      <c r="E442" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F442" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
+      <c r="E443" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A444" s="1">
         <v>422</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B444" t="s">
         <v>822</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="C444" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D444" t="s">
         <v>824</v>
       </c>
-      <c r="E443" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F443" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="1">
+      <c r="E444" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A445" s="1">
         <v>423</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B445" t="s">
         <v>825</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C445" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D445" t="s">
         <v>827</v>
       </c>
-      <c r="E444" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F444" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="1">
+      <c r="E445" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A446" s="1">
         <v>424</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B446" t="s">
         <v>828</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="C446" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D446" t="s">
         <v>807</v>
       </c>
-      <c r="E445" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F445" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="1">
+      <c r="E446" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A447" s="1">
         <v>425</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B447" t="s">
         <v>59</v>
       </c>
-      <c r="C446" s="3" t="s">
+      <c r="C447" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D447" t="s">
         <v>816</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F446" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="1">
+      <c r="E447" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A448" s="1">
         <v>426</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B448" t="s">
         <v>417</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C448" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D448" t="s">
         <v>832</v>
       </c>
-      <c r="E447" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F447" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="1">
+      <c r="E448" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A449" s="1">
         <v>427</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B449" t="s">
         <v>833</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C449" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D449" t="s">
         <v>835</v>
       </c>
-      <c r="E448" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F448" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="1">
+      <c r="E449" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A450" s="1">
         <v>428</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B450" t="s">
         <v>189</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="C450" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D450" t="s">
         <v>837</v>
       </c>
-      <c r="E449" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F449" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
+      <c r="E450" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A451" s="1">
         <v>429</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B451" t="s">
         <v>838</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="C451" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D451" t="s">
         <v>840</v>
       </c>
-      <c r="E450" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F450" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="1">
+      <c r="E451" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A452" s="1">
         <v>430</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B452" t="s">
         <v>841</v>
       </c>
-      <c r="C451" s="3" t="s">
+      <c r="C452" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D452" t="s">
         <v>827</v>
       </c>
-      <c r="E451" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F451" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
+      <c r="E452" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A453" s="1">
         <v>431</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B453" t="s">
         <v>109</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="C453" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D453" t="s">
         <v>844</v>
       </c>
-      <c r="E452" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F452" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
+      <c r="E453" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A454" s="1">
         <v>432</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B454" t="s">
         <v>845</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C454" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D454" t="s">
         <v>467</v>
       </c>
-      <c r="E453" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F453" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="1">
+      <c r="E454" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A455" s="1">
         <v>433</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B455" t="s">
         <v>217</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C455" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D455" t="s">
         <v>848</v>
       </c>
-      <c r="E454" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F454" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="1">
+      <c r="E455" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A456" s="1">
         <v>434</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B456" t="s">
         <v>363</v>
       </c>
-      <c r="C455" s="3" t="s">
+      <c r="C456" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D456" t="s">
         <v>850</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F455" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
+      <c r="E456" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A457" s="1">
         <v>435</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B457" t="s">
         <v>851</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="C457" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D457" t="s">
         <v>853</v>
       </c>
-      <c r="E456" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F456" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="1">
+      <c r="E457" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A458" s="1">
         <v>436</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B458" t="s">
         <v>887</v>
       </c>
-      <c r="C457" s="3" t="s">
+      <c r="C458" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D458" t="s">
         <v>1059</v>
       </c>
-      <c r="E457" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F457" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="1">
+      <c r="E458" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A459" s="1">
         <v>437</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B459" t="s">
         <v>888</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C459" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D459" t="s">
         <v>1111</v>
       </c>
-      <c r="E458" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F458" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="1">
+      <c r="E459" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A460" s="1">
         <v>438</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B460" t="s">
         <v>893</v>
       </c>
-      <c r="C459" s="3" t="s">
+      <c r="C460" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D460" t="s">
         <v>1061</v>
       </c>
-      <c r="E459" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F459" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="1">
+      <c r="E460" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A461" s="1">
         <v>439</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B461" t="s">
         <v>895</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C461" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D461" t="s">
         <v>1062</v>
       </c>
-      <c r="E460" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F460" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="1">
+      <c r="E461" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A462" s="1">
         <v>440</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B462" t="s">
         <v>916</v>
       </c>
-      <c r="C461" s="3" t="s">
+      <c r="C462" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D462" t="s">
         <v>1067</v>
       </c>
-      <c r="E461" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F461" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="1">
+      <c r="E462" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A463" s="1">
         <v>441</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B463" t="s">
         <v>922</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="C463" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D463" t="s">
         <v>1069</v>
       </c>
-      <c r="E462" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F462" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="1">
+      <c r="E463" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A464" s="1">
         <v>442</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B464" t="s">
         <v>927</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C464" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D464" t="s">
         <v>1071</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F463" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="1">
+      <c r="E464" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A465" s="1">
         <v>443</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B465" t="s">
         <v>936</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C465" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D465" t="s">
         <v>1067</v>
       </c>
-      <c r="E464" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F464" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
+      <c r="E465" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A466" s="1">
         <v>444</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B466" t="s">
         <v>939</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="C466" s="3" t="s">
         <v>938</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F465" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="1">
-        <v>445</v>
-      </c>
-      <c r="B466" t="s">
-        <v>941</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>940</v>
       </c>
       <c r="D466" t="s">
         <v>1074</v>
@@ -13373,135 +13377,135 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
+        <v>445</v>
+      </c>
+      <c r="B467" t="s">
+        <v>941</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A468" s="1">
         <v>446</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B468" t="s">
         <v>945</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C468" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D468" t="s">
         <v>1076</v>
       </c>
-      <c r="E467" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F467" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="1">
+      <c r="E468" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A469" s="1">
         <v>447</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B469" t="s">
         <v>952</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C469" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D469" t="s">
         <v>1077</v>
       </c>
-      <c r="E468" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F468" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="1">
+      <c r="E469" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A470" s="1">
         <v>448</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B470" t="s">
         <v>956</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="C470" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D470" t="s">
         <v>1079</v>
       </c>
-      <c r="E469" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F469" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="1">
+      <c r="E470" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A471" s="1">
         <v>449</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B471" t="s">
         <v>957</v>
       </c>
-      <c r="C470" s="3" t="s">
+      <c r="C471" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D471" t="s">
         <v>1080</v>
       </c>
-      <c r="E470" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F470" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
+      <c r="E471" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A472" s="1">
         <v>450</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B472" t="s">
         <v>968</v>
       </c>
-      <c r="C471" s="3" t="s">
+      <c r="C472" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D472" t="s">
         <v>1083</v>
       </c>
-      <c r="E471" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F471" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
+      <c r="E472" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A473" s="1">
         <v>451</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B473" t="s">
         <v>970</v>
       </c>
-      <c r="C472" s="3" t="s">
+      <c r="C473" s="3" t="s">
         <v>969</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F472" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
-        <v>452</v>
-      </c>
-      <c r="B473" t="s">
-        <v>974</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>973</v>
       </c>
       <c r="D473" t="s">
         <v>1084</v>
@@ -13513,15 +13517,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D474" t="s">
         <v>1084</v>
@@ -13533,355 +13537,355 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
+        <v>453</v>
+      </c>
+      <c r="B475" t="s">
+        <v>976</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A476" s="1">
         <v>454</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B476" t="s">
         <v>978</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="C476" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D476" t="s">
         <v>1085</v>
       </c>
-      <c r="E475" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F475" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
+      <c r="E476" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A477" s="1">
         <v>455</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B477" t="s">
         <v>988</v>
       </c>
-      <c r="C476" s="3" t="s">
+      <c r="C477" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D477" t="s">
         <v>1090</v>
       </c>
-      <c r="E476" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F476" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="1">
+      <c r="E477" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A478" s="1">
         <v>456</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B478" t="s">
         <v>993</v>
       </c>
-      <c r="C477" s="3" t="s">
+      <c r="C478" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D478" t="s">
         <v>1092</v>
       </c>
-      <c r="E477" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F477" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
+      <c r="E478" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A479" s="1">
         <v>457</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B479" t="s">
         <v>994</v>
       </c>
-      <c r="C478" s="3" t="s">
+      <c r="C479" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D479" t="s">
         <v>1093</v>
       </c>
-      <c r="E478" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F478" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="1">
+      <c r="E479" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A480" s="1">
         <v>458</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B480" t="s">
         <v>930</v>
       </c>
-      <c r="C479" s="3" t="s">
+      <c r="C480" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D480" t="s">
         <v>1069</v>
       </c>
-      <c r="E479" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F479" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="1">
+      <c r="E480" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A481" s="1">
         <v>459</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B481" t="s">
         <v>911</v>
       </c>
-      <c r="C480" s="3" t="s">
+      <c r="C481" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D481" t="s">
         <v>1067</v>
       </c>
-      <c r="E480" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F480" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="1">
-        <v>460</v>
-      </c>
-      <c r="B481" t="s">
+      <c r="E481" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A482" s="1">
+        <v>460</v>
+      </c>
+      <c r="B482" t="s">
         <v>1001</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C482" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D482" t="s">
         <v>1095</v>
       </c>
-      <c r="E481" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F481" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="1">
+      <c r="E482" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A483" s="1">
         <v>461</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B483" t="s">
         <v>1003</v>
       </c>
-      <c r="C482" s="3" t="s">
+      <c r="C483" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D483" t="s">
         <v>1096</v>
       </c>
-      <c r="E482" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F482" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="1">
+      <c r="E483" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A484" s="1">
         <v>462</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B484" t="s">
         <v>228</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="C484" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D484" t="s">
         <v>1103</v>
       </c>
-      <c r="E483" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F483" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
+      <c r="E484" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A485" s="1">
         <v>463</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B485" t="s">
         <v>1027</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D485" t="s">
         <v>1105</v>
       </c>
-      <c r="E484" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F484" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
+      <c r="E485" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A486" s="1">
         <v>464</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B486" t="s">
         <v>1030</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D486" t="s">
         <v>1106</v>
       </c>
-      <c r="E485" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F485" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
+      <c r="E486" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A487" s="1">
         <v>465</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B487" t="s">
         <v>1033</v>
       </c>
-      <c r="C486" s="3" t="s">
+      <c r="C487" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D487" t="s">
         <v>1107</v>
       </c>
-      <c r="E486" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F486" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
+      <c r="E487" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A488" s="1">
         <v>466</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B488" t="s">
         <v>911</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="C488" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D488" t="s">
         <v>1108</v>
       </c>
-      <c r="E487" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F487" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
+      <c r="E488" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A489" s="1">
         <v>467</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B489" t="s">
         <v>1036</v>
       </c>
-      <c r="C488" s="3" t="s">
+      <c r="C489" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D489" t="s">
         <v>1093</v>
       </c>
-      <c r="E488" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F488" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
+      <c r="E489" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A490" s="1">
         <v>468</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B490" t="s">
         <v>1044</v>
       </c>
-      <c r="C489" s="3" t="s">
+      <c r="C490" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D490" t="s">
         <v>1110</v>
       </c>
-      <c r="E489" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F489" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
+      <c r="E490" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A491" s="1">
         <v>490</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B491" t="s">
         <v>947</v>
       </c>
-      <c r="C490" s="3" t="s">
+      <c r="C491" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D491" t="s">
         <v>1115</v>
       </c>
-      <c r="E490" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F490" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
+      <c r="E491" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A492" s="1">
         <v>495</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B492" t="s">
         <v>1124</v>
       </c>
-      <c r="C491" s="3" t="s">
+      <c r="C492" s="3" t="s">
         <v>1123</v>
-      </c>
-      <c r="D491" t="s">
-        <v>507</v>
-      </c>
-      <c r="E491" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F491" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
-        <v>499</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>1132</v>
       </c>
       <c r="D492" t="s">
         <v>507</v>
@@ -13893,35 +13897,35 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
+        <v>499</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D493" t="s">
+        <v>507</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A494" s="1">
         <v>469</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B494" t="s">
         <v>854</v>
       </c>
-      <c r="C493" s="3">
+      <c r="C494" s="3">
         <v>6597973299</v>
-      </c>
-      <c r="D493" t="s">
-        <v>856</v>
-      </c>
-      <c r="E493" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="F493" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>470</v>
-      </c>
-      <c r="B494" t="s">
-        <v>857</v>
-      </c>
-      <c r="C494" s="3">
-        <v>6581021049</v>
       </c>
       <c r="D494" t="s">
         <v>856</v>
@@ -13933,15 +13937,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B495" t="s">
-        <v>858</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
+      </c>
+      <c r="C495" s="3">
+        <v>6581021049</v>
       </c>
       <c r="D495" t="s">
         <v>856</v>
@@ -13953,15 +13957,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B496" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D496" t="s">
         <v>856</v>
@@ -13973,15 +13977,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B497" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D497" t="s">
         <v>856</v>
@@ -13993,15 +13997,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B498" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D498" t="s">
         <v>856</v>
@@ -14013,15 +14017,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B499" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D499" t="s">
         <v>856</v>
@@ -14030,18 +14034,18 @@
         <v>855</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B500" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D500" t="s">
         <v>856</v>
@@ -14053,15 +14057,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B501" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D501" t="s">
         <v>856</v>
@@ -14070,18 +14074,18 @@
         <v>855</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B502" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D502" t="s">
         <v>856</v>
@@ -14090,18 +14094,18 @@
         <v>855</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B503" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D503" t="s">
         <v>856</v>
@@ -14113,15 +14117,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B504" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D504" t="s">
         <v>856</v>
@@ -14133,18 +14137,18 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B505" t="s">
-        <v>878</v>
-      </c>
-      <c r="C505" s="3">
-        <v>6597391278</v>
+        <v>876</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>877</v>
       </c>
       <c r="D505" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>855</v>
@@ -14153,18 +14157,18 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B506" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C506" s="3">
-        <v>6592475844</v>
+        <v>6597391278</v>
       </c>
       <c r="D506" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>855</v>
@@ -14173,15 +14177,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B507" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C507" s="3">
-        <v>6591373209</v>
+        <v>6592475844</v>
       </c>
       <c r="D507" t="s">
         <v>856</v>
@@ -14193,15 +14197,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B508" t="s">
-        <v>882</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
+      </c>
+      <c r="C508" s="3">
+        <v>6591373209</v>
       </c>
       <c r="D508" t="s">
         <v>856</v>
@@ -14213,15 +14217,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B509" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D509" t="s">
         <v>856</v>
@@ -14233,15 +14237,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B510" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D510" t="s">
         <v>856</v>
@@ -14253,15 +14257,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B511" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D511" t="s">
         <v>856</v>
@@ -14273,15 +14277,15 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B512" t="s">
-        <v>987</v>
+        <v>909</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>986</v>
+        <v>908</v>
       </c>
       <c r="D512" t="s">
         <v>856</v>
@@ -14290,24 +14294,24 @@
         <v>855</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B513" t="s">
-        <v>417</v>
+        <v>987</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1168</v>
+        <v>986</v>
       </c>
       <c r="D513" t="s">
-        <v>184</v>
+        <v>856</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>11</v>
+        <v>855</v>
       </c>
       <c r="F513" s="3" t="s">
         <v>1160</v>
@@ -14315,8 +14319,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:G2" xr:uid="{5DE784B9-A7A5-40C4-BBBF-1CCA905101EE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G512">
-    <sortCondition ref="E512"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G513">
+    <sortCondition ref="E494:E513"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="4"/>
@@ -14354,17 +14358,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="109.7109375" customWidth="1"/>
+    <col min="2" max="2" width="109.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>1159</v>
       </c>

--- a/contacts281224.xlsx
+++ b/contacts281224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11840d65c31c49d1/Documents/Personal/Others/304_CNY2025_whatsapp/sendwhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1035" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F10498-C0C0-47EE-863E-13E5EC3C6DB3}"/>
+  <xr:revisionPtr revIDLastSave="1036" documentId="8_{18E88B5C-33A3-4984-A8D4-C1CCCA11C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D120F1D4-64AF-4E47-9832-C012AC683C5A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD97ED37-5BEA-42FC-8B07-56997D3C1ABA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1168">
   <si>
     <t>Name</t>
   </si>
@@ -1841,9 +1841,6 @@
   </si>
   <si>
     <t>Nader UPS</t>
-  </si>
-  <si>
-    <t>Silkscreen</t>
   </si>
   <si>
     <t>TUV EMC</t>
@@ -4048,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68AFFC-7787-4821-B6FC-9B1CD68636CD}">
-  <dimension ref="A1:G513"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F278" sqref="F278"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F337" sqref="F337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4090,16 +4087,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4116,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4136,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4156,7 +4153,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4176,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4196,7 +4193,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4216,7 +4213,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4236,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4256,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4276,7 +4273,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4296,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4316,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4336,7 +4333,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -4356,7 +4353,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4376,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4396,7 +4393,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -4416,7 +4413,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -4436,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4456,7 +4453,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -4476,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -4496,7 +4493,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -4516,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -4536,7 +4533,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -4556,7 +4553,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -4576,7 +4573,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -4596,7 +4593,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -4616,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -4636,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -4656,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -4676,7 +4673,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -4696,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -4716,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4736,7 +4733,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -4756,7 +4753,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4776,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -4796,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -4816,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -4836,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4856,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4876,7 +4873,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -4896,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -4916,7 +4913,7 @@
         <v>11</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -4936,7 +4933,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -4956,7 +4953,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -4976,7 +4973,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -4996,7 +4993,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -5016,7 +5013,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -5036,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -5056,7 +5053,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -5076,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -5096,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -5116,7 +5113,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -5136,7 +5133,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -5156,7 +5153,7 @@
         <v>11</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -5176,7 +5173,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -5196,7 +5193,7 @@
         <v>11</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -5216,7 +5213,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -5236,7 +5233,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -5256,7 +5253,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -5276,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -5296,7 +5293,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -5316,7 +5313,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -5336,7 +5333,7 @@
         <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -5356,7 +5353,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -5376,7 +5373,7 @@
         <v>11</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -5396,7 +5393,7 @@
         <v>11</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -5416,7 +5413,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -5436,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -5456,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -5476,7 +5473,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -5496,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -5516,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -5536,7 +5533,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -5556,7 +5553,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -5576,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -5596,7 +5593,7 @@
         <v>11</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -5616,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -5636,7 +5633,7 @@
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -5656,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -5676,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -5696,7 +5693,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -5716,7 +5713,7 @@
         <v>11</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -5736,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -5756,7 +5753,7 @@
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -5776,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5796,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -5816,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -5836,7 +5833,7 @@
         <v>11</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -5856,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -5876,7 +5873,7 @@
         <v>11</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -5896,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -5916,7 +5913,7 @@
         <v>11</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -5936,7 +5933,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -5956,7 +5953,7 @@
         <v>11</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -5976,7 +5973,7 @@
         <v>11</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -5996,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -6016,7 +6013,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -6036,7 +6033,7 @@
         <v>11</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -6056,7 +6053,7 @@
         <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -6076,7 +6073,7 @@
         <v>11</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -6096,7 +6093,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -6116,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -6136,7 +6133,7 @@
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -6156,7 +6153,7 @@
         <v>11</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -6176,7 +6173,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -6196,7 +6193,7 @@
         <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -6216,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -6236,7 +6233,7 @@
         <v>11</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -6256,7 +6253,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -6276,7 +6273,7 @@
         <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -6296,7 +6293,7 @@
         <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -6316,7 +6313,7 @@
         <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -6336,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -6356,7 +6353,7 @@
         <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -6376,7 +6373,7 @@
         <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -6396,7 +6393,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -6416,7 +6413,7 @@
         <v>11</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -6436,7 +6433,7 @@
         <v>11</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -6456,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -6476,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -6496,7 +6493,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -6516,7 +6513,7 @@
         <v>11</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -6536,7 +6533,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -6556,7 +6553,7 @@
         <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -6576,7 +6573,7 @@
         <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -6596,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -6616,7 +6613,7 @@
         <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -6636,7 +6633,7 @@
         <v>11</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -6656,7 +6653,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -6676,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -6696,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -6716,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -6736,7 +6733,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -6756,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -6776,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -6796,7 +6793,7 @@
         <v>11</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -6816,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -6836,7 +6833,7 @@
         <v>11</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -6856,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -6876,7 +6873,7 @@
         <v>11</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -6896,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -6916,7 +6913,7 @@
         <v>11</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -6936,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -6956,7 +6953,7 @@
         <v>11</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -6976,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -6996,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -7016,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -7036,7 +7033,7 @@
         <v>11</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -7056,7 +7053,7 @@
         <v>11</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -7076,7 +7073,7 @@
         <v>11</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -7096,7 +7093,7 @@
         <v>11</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -7116,7 +7113,7 @@
         <v>11</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -7136,7 +7133,7 @@
         <v>11</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -7156,7 +7153,7 @@
         <v>11</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -7176,7 +7173,7 @@
         <v>11</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7196,7 +7193,7 @@
         <v>11</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7216,7 +7213,7 @@
         <v>11</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7236,7 +7233,7 @@
         <v>11</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7256,7 +7253,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7276,7 +7273,7 @@
         <v>11</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7296,7 +7293,7 @@
         <v>11</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7316,7 +7313,7 @@
         <v>11</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7336,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7356,7 +7353,7 @@
         <v>11</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7376,7 +7373,7 @@
         <v>11</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7396,7 +7393,7 @@
         <v>11</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7416,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7436,7 +7433,7 @@
         <v>11</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7456,7 +7453,7 @@
         <v>11</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7476,7 +7473,7 @@
         <v>11</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7496,7 +7493,7 @@
         <v>11</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7516,7 +7513,7 @@
         <v>11</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7536,7 +7533,7 @@
         <v>11</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7556,7 +7553,7 @@
         <v>11</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7576,7 +7573,7 @@
         <v>11</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7596,7 +7593,7 @@
         <v>11</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7616,7 +7613,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7636,7 +7633,7 @@
         <v>11</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7656,7 +7653,7 @@
         <v>11</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7676,7 +7673,7 @@
         <v>11</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7696,7 +7693,7 @@
         <v>11</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7716,7 +7713,7 @@
         <v>11</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7736,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7756,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7776,7 +7773,7 @@
         <v>11</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7796,7 +7793,7 @@
         <v>11</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7816,7 +7813,7 @@
         <v>11</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7836,7 +7833,7 @@
         <v>11</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7856,7 +7853,7 @@
         <v>11</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7876,7 +7873,7 @@
         <v>11</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7896,7 +7893,7 @@
         <v>11</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7916,7 +7913,7 @@
         <v>11</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7936,7 +7933,7 @@
         <v>11</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7956,7 +7953,7 @@
         <v>11</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7976,7 +7973,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7996,7 +7993,7 @@
         <v>11</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8016,7 +8013,7 @@
         <v>11</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8036,7 +8033,7 @@
         <v>11</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8056,7 +8053,7 @@
         <v>11</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8076,7 +8073,7 @@
         <v>11</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8096,7 +8093,7 @@
         <v>11</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8116,7 +8113,7 @@
         <v>11</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8124,19 +8121,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D204" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8144,19 +8141,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D205" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8164,19 +8161,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D206" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8184,19 +8181,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D207" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8204,10 +8201,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D208" t="s">
         <v>95</v>
@@ -8216,7 +8213,7 @@
         <v>11</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8224,19 +8221,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D209" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8244,19 +8241,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D210" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8264,19 +8261,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D211" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8284,19 +8281,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D212" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8304,19 +8301,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D213" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8324,19 +8321,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D214" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8344,10 +8341,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D215" t="s">
         <v>350</v>
@@ -8356,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8364,10 +8361,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D216" t="s">
         <v>350</v>
@@ -8376,7 +8373,7 @@
         <v>11</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8384,19 +8381,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D217" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8404,19 +8401,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D218" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8424,19 +8421,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D219" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8444,19 +8441,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>941</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>943</v>
-      </c>
       <c r="D220" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8464,10 +8461,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D221" t="s">
         <v>41</v>
@@ -8476,7 +8473,7 @@
         <v>11</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8484,10 +8481,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D222" t="s">
         <v>199</v>
@@ -8496,7 +8493,7 @@
         <v>11</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8504,10 +8501,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D223" t="s">
         <v>330</v>
@@ -8516,7 +8513,7 @@
         <v>11</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8524,19 +8521,19 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D224" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8544,10 +8541,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D225" t="s">
         <v>350</v>
@@ -8556,7 +8553,7 @@
         <v>11</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8564,19 +8561,19 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D226" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8584,19 +8581,19 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D227" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8604,10 +8601,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D228" t="s">
         <v>50</v>
@@ -8616,7 +8613,7 @@
         <v>11</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8624,19 +8621,19 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D229" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8647,16 +8644,16 @@
         <v>555</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D230" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8664,19 +8661,19 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D231" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8684,19 +8681,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D232" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8704,19 +8701,19 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D233" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8724,19 +8721,19 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C234" s="3" t="s">
-        <v>1005</v>
-      </c>
       <c r="D234" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8744,19 +8741,19 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D235" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8764,19 +8761,19 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D236" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8784,19 +8781,19 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D237" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8804,19 +8801,19 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D238" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8824,10 +8821,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D239" t="s">
         <v>424</v>
@@ -8836,7 +8833,7 @@
         <v>11</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8844,19 +8841,19 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D240" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8864,19 +8861,19 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>1018</v>
-      </c>
       <c r="D241" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8884,19 +8881,19 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>1020</v>
-      </c>
       <c r="D242" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8904,19 +8901,19 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D243" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8924,19 +8921,19 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>1025</v>
-      </c>
       <c r="D244" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8944,10 +8941,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D245" t="s">
         <v>95</v>
@@ -8956,7 +8953,7 @@
         <v>11</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8964,19 +8961,19 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D246" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8984,19 +8981,19 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D247" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9004,10 +9001,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>1041</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>1042</v>
       </c>
       <c r="D248" t="s">
         <v>95</v>
@@ -9016,7 +9013,7 @@
         <v>11</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9024,19 +9021,19 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D249" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9044,19 +9041,19 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D250" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9064,10 +9061,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D251" t="s">
         <v>350</v>
@@ -9076,7 +9073,7 @@
         <v>11</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9087,7 +9084,7 @@
         <v>404</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D252" t="s">
         <v>199</v>
@@ -9096,7 +9093,7 @@
         <v>11</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9104,19 +9101,19 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C253" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D253" t="s">
         <v>1053</v>
       </c>
-      <c r="D253" t="s">
-        <v>1054</v>
-      </c>
       <c r="E253" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9124,19 +9121,19 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" t="s">
         <v>1056</v>
       </c>
-      <c r="D254" t="s">
-        <v>1057</v>
-      </c>
       <c r="E254" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9144,19 +9141,19 @@
         <v>489</v>
       </c>
       <c r="B255" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>1113</v>
-      </c>
       <c r="D255" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9167,7 +9164,7 @@
         <v>109</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D256" t="s">
         <v>109</v>
@@ -9176,7 +9173,7 @@
         <v>11</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9187,16 +9184,16 @@
         <v>31</v>
       </c>
       <c r="C257" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D257" t="s">
         <v>1117</v>
       </c>
-      <c r="D257" t="s">
-        <v>1118</v>
-      </c>
       <c r="E257" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9204,19 +9201,19 @@
         <v>493</v>
       </c>
       <c r="B258" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>1120</v>
-      </c>
       <c r="D258" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9224,10 +9221,10 @@
         <v>494</v>
       </c>
       <c r="B259" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>1121</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>1122</v>
       </c>
       <c r="D259" t="s">
         <v>105</v>
@@ -9236,7 +9233,7 @@
         <v>11</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9244,10 +9241,10 @@
         <v>496</v>
       </c>
       <c r="B260" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D260" t="s">
         <v>169</v>
@@ -9256,7 +9253,7 @@
         <v>11</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9264,10 +9261,10 @@
         <v>497</v>
       </c>
       <c r="B261" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D261" t="s">
         <v>169</v>
@@ -9276,7 +9273,7 @@
         <v>11</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9284,19 +9281,19 @@
         <v>498</v>
       </c>
       <c r="B262" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D262" t="s">
         <v>1130</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1131</v>
-      </c>
       <c r="E262" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9304,19 +9301,19 @@
         <v>500</v>
       </c>
       <c r="B263" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C263" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D263" t="s">
         <v>1134</v>
       </c>
-      <c r="D263" t="s">
-        <v>1135</v>
-      </c>
       <c r="E263" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9324,19 +9321,19 @@
         <v>501</v>
       </c>
       <c r="B264" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D264" t="s">
         <v>1138</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1139</v>
-      </c>
       <c r="E264" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9344,19 +9341,19 @@
         <v>502</v>
       </c>
       <c r="B265" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C265" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D265" t="s">
         <v>1140</v>
       </c>
-      <c r="D265" t="s">
-        <v>1141</v>
-      </c>
       <c r="E265" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9364,19 +9361,19 @@
         <v>503</v>
       </c>
       <c r="B266" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D266" t="s">
         <v>1144</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1145</v>
-      </c>
       <c r="E266" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9387,16 +9384,16 @@
         <v>251</v>
       </c>
       <c r="C267" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D267" t="s">
         <v>1146</v>
       </c>
-      <c r="D267" t="s">
-        <v>1147</v>
-      </c>
       <c r="E267" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9404,19 +9401,19 @@
         <v>505</v>
       </c>
       <c r="B268" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D268" t="s">
         <v>1149</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1150</v>
-      </c>
       <c r="E268" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9424,19 +9421,19 @@
         <v>506</v>
       </c>
       <c r="B269" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D269" t="s">
         <v>1152</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1153</v>
-      </c>
       <c r="E269" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9444,19 +9441,19 @@
         <v>507</v>
       </c>
       <c r="B270" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D270" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9464,19 +9461,19 @@
         <v>508</v>
       </c>
       <c r="B271" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="C271" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="D271" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9487,16 +9484,16 @@
         <v>109</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D272" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9507,7 +9504,7 @@
         <v>417</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D273" t="s">
         <v>184</v>
@@ -9516,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9536,7 +9533,7 @@
         <v>456</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9544,19 +9541,19 @@
         <v>255</v>
       </c>
       <c r="B275" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D275" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9576,7 +9573,7 @@
         <v>456</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9596,7 +9593,7 @@
         <v>456</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9604,19 +9601,19 @@
         <v>489</v>
       </c>
       <c r="B278" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D278" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9624,19 +9621,19 @@
         <v>490</v>
       </c>
       <c r="B279" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>1165</v>
-      </c>
       <c r="D279" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9656,7 +9653,7 @@
         <v>460</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9676,7 +9673,7 @@
         <v>460</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9696,7 +9693,7 @@
         <v>460</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9716,7 +9713,7 @@
         <v>460</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9736,7 +9733,7 @@
         <v>460</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9756,7 +9753,7 @@
         <v>460</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9776,7 +9773,7 @@
         <v>460</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9796,7 +9793,7 @@
         <v>460</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9816,7 +9813,7 @@
         <v>460</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9836,7 +9833,7 @@
         <v>460</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9856,7 +9853,7 @@
         <v>460</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9876,7 +9873,7 @@
         <v>460</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9896,7 +9893,7 @@
         <v>460</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9916,7 +9913,7 @@
         <v>460</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9936,7 +9933,7 @@
         <v>460</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9956,7 +9953,7 @@
         <v>460</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9976,7 +9973,7 @@
         <v>460</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9996,7 +9993,7 @@
         <v>460</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10016,7 +10013,7 @@
         <v>460</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10036,7 +10033,7 @@
         <v>460</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10056,7 +10053,7 @@
         <v>460</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10076,7 +10073,7 @@
         <v>460</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10096,7 +10093,7 @@
         <v>460</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10116,7 +10113,7 @@
         <v>460</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10136,7 +10133,7 @@
         <v>460</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10156,7 +10153,7 @@
         <v>460</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10176,7 +10173,7 @@
         <v>460</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10196,7 +10193,7 @@
         <v>460</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10216,7 +10213,7 @@
         <v>460</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10236,7 +10233,7 @@
         <v>460</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
@@ -10256,7 +10253,7 @@
         <v>460</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
@@ -10276,7 +10273,7 @@
         <v>460</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -10296,7 +10293,7 @@
         <v>460</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -10316,7 +10313,7 @@
         <v>460</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
@@ -10336,7 +10333,7 @@
         <v>460</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
@@ -10356,7 +10353,7 @@
         <v>460</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
@@ -10376,7 +10373,7 @@
         <v>460</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -10396,7 +10393,7 @@
         <v>460</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -10416,7 +10413,7 @@
         <v>460</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
@@ -10436,7 +10433,7 @@
         <v>460</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -10454,7 +10451,7 @@
         <v>460</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -10474,7 +10471,7 @@
         <v>460</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -10494,7 +10491,7 @@
         <v>460</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
@@ -10514,7 +10511,7 @@
         <v>460</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
@@ -10534,7 +10531,7 @@
         <v>460</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -10554,7 +10551,7 @@
         <v>460</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -10574,7 +10571,7 @@
         <v>460</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
@@ -10594,7 +10591,7 @@
         <v>460</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -10614,7 +10611,7 @@
         <v>460</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
@@ -10634,7 +10631,7 @@
         <v>460</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
@@ -10654,7 +10651,7 @@
         <v>460</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10674,7 +10671,7 @@
         <v>460</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
@@ -10694,7 +10691,7 @@
         <v>460</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -10714,7 +10711,7 @@
         <v>460</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
@@ -10734,7 +10731,7 @@
         <v>460</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10754,7 +10751,7 @@
         <v>460</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -10774,7 +10771,7 @@
         <v>460</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -10794,18 +10791,18 @@
         <v>460</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B338" t="s">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="C338" s="4">
-        <v>6598574086</v>
+        <v>6590671674</v>
       </c>
       <c r="D338" t="s">
         <v>604</v>
@@ -10814,558 +10811,558 @@
         <v>460</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B339" t="s">
-        <v>390</v>
-      </c>
-      <c r="C339" s="4">
-        <v>6590671674</v>
+        <v>605</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="D339" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B340" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D340" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B341" t="s">
-        <v>591</v>
+        <v>33</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D341" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B342" t="s">
-        <v>33</v>
+        <v>586</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D342" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B343" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D343" t="s">
-        <v>614</v>
+        <v>499</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B344" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D344" t="s">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B345" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D345" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B346" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D346" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B347" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D347" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D348" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D349" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B350" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D350" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B351" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D351" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B352" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D352" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B353" t="s">
-        <v>634</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
+      </c>
+      <c r="C353" s="4">
+        <v>6597354898</v>
       </c>
       <c r="D353" t="s">
-        <v>641</v>
+        <v>467</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B354" t="s">
+        <v>572</v>
+      </c>
+      <c r="C354" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C354" s="4">
-        <v>6597354898</v>
-      </c>
       <c r="D354" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B355" t="s">
-        <v>572</v>
-      </c>
-      <c r="C355" s="4" t="s">
         <v>643</v>
       </c>
+      <c r="C355" s="4">
+        <v>6591061368</v>
+      </c>
       <c r="D355" t="s">
-        <v>514</v>
+        <v>644</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B356" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C356" s="4">
-        <v>6591061368</v>
+        <v>6596732504</v>
       </c>
       <c r="D356" t="s">
-        <v>645</v>
+        <v>95</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B357" t="s">
         <v>646</v>
       </c>
       <c r="C357" s="4">
-        <v>6596732504</v>
+        <v>6596786781</v>
       </c>
       <c r="D357" t="s">
-        <v>95</v>
+        <v>647</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B358" t="s">
-        <v>647</v>
-      </c>
-      <c r="C358" s="4">
-        <v>6596786781</v>
+        <v>648</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="D358" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B359" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D359" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B360" t="s">
-        <v>652</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="C360" s="4">
+        <v>6596235793</v>
       </c>
       <c r="D360" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B361" t="s">
-        <v>655</v>
-      </c>
-      <c r="C361" s="4">
-        <v>6596235793</v>
+        <v>656</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>657</v>
       </c>
       <c r="D361" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B362" t="s">
-        <v>657</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="C362" s="4">
+        <v>6587950546</v>
       </c>
       <c r="D362" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B363" t="s">
-        <v>660</v>
-      </c>
-      <c r="C363" s="4">
-        <v>6587950546</v>
+        <v>661</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="D363" t="s">
-        <v>661</v>
+        <v>507</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B364" t="s">
-        <v>662</v>
-      </c>
-      <c r="C364" s="4" t="s">
         <v>663</v>
       </c>
+      <c r="C364" s="4">
+        <v>97671799</v>
+      </c>
       <c r="D364" t="s">
-        <v>507</v>
+        <v>664</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B365" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C365" s="4">
-        <v>97671799</v>
+        <v>91919860</v>
       </c>
       <c r="D365" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B366" t="s">
-        <v>666</v>
+        <v>31</v>
       </c>
       <c r="C366" s="4">
-        <v>91919860</v>
+        <v>6598380822</v>
       </c>
       <c r="D366" t="s">
         <v>667</v>
@@ -11374,38 +11371,38 @@
         <v>460</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" t="s">
-        <v>31</v>
-      </c>
-      <c r="C367" s="4">
-        <v>6598380822</v>
+        <v>668</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="D367" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" t="s">
-        <v>669</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>670</v>
+        <v>51</v>
+      </c>
+      <c r="C368" s="4">
+        <v>6594788102</v>
       </c>
       <c r="D368" t="s">
         <v>671</v>
@@ -11414,178 +11411,178 @@
         <v>460</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B369" t="s">
-        <v>51</v>
+        <v>672</v>
       </c>
       <c r="C369" s="4">
-        <v>6594788102</v>
+        <v>6598805269</v>
       </c>
       <c r="D369" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B370" t="s">
-        <v>673</v>
-      </c>
-      <c r="C370" s="4">
-        <v>6598805269</v>
+        <v>674</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>675</v>
       </c>
       <c r="D370" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B371" t="s">
-        <v>675</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="C371" s="4">
+        <v>6597396531</v>
       </c>
       <c r="D371" t="s">
-        <v>677</v>
+        <v>597</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B372" t="s">
         <v>678</v>
       </c>
-      <c r="C372" s="4">
-        <v>6597396531</v>
+      <c r="C372" s="4" t="s">
+        <v>679</v>
       </c>
       <c r="D372" t="s">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B373" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D373" t="s">
-        <v>529</v>
+        <v>682</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B374" t="s">
-        <v>681</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
+      </c>
+      <c r="C374" s="4">
+        <v>6596646306</v>
       </c>
       <c r="D374" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B375" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C375" s="4">
-        <v>6596646306</v>
+        <v>6590851202</v>
       </c>
       <c r="D375" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B376" t="s">
+        <v>51</v>
+      </c>
+      <c r="C376" s="4">
+        <v>6597512655</v>
+      </c>
+      <c r="D376" t="s">
         <v>686</v>
       </c>
-      <c r="C376" s="4">
-        <v>6590851202</v>
-      </c>
-      <c r="D376" t="s">
-        <v>687</v>
-      </c>
       <c r="E376" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B377" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C377" s="4">
-        <v>6597512655</v>
+        <v>6596680685</v>
       </c>
       <c r="D377" t="s">
         <v>687</v>
@@ -11594,58 +11591,58 @@
         <v>460</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B378" t="s">
-        <v>224</v>
+        <v>688</v>
       </c>
       <c r="C378" s="4">
-        <v>6596680685</v>
+        <v>6582927996</v>
       </c>
       <c r="D378" t="s">
-        <v>688</v>
+        <v>507</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B379" t="s">
         <v>689</v>
       </c>
-      <c r="C379" s="4">
-        <v>6582927996</v>
+      <c r="C379" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="D379" t="s">
-        <v>507</v>
+        <v>691</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B380" t="s">
-        <v>690</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>691</v>
+        <v>100</v>
+      </c>
+      <c r="C380" s="3">
+        <v>6581182151</v>
       </c>
       <c r="D380" t="s">
         <v>692</v>
@@ -11654,558 +11651,558 @@
         <v>460</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B381" t="s">
-        <v>100</v>
+        <v>592</v>
       </c>
       <c r="C381" s="3">
-        <v>6581182151</v>
+        <v>6596775760</v>
       </c>
       <c r="D381" t="s">
-        <v>693</v>
+        <v>73</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B382" t="s">
-        <v>592</v>
+        <v>693</v>
       </c>
       <c r="C382" s="3">
-        <v>6596775760</v>
+        <v>6598389906</v>
       </c>
       <c r="D382" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B383" t="s">
         <v>694</v>
       </c>
-      <c r="C383" s="3">
-        <v>6598389906</v>
+      <c r="C383" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="D383" t="s">
-        <v>95</v>
+        <v>696</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B384" t="s">
-        <v>695</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
+      </c>
+      <c r="C384" s="3">
+        <v>6596459656</v>
       </c>
       <c r="D384" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B385" t="s">
-        <v>698</v>
-      </c>
-      <c r="C385" s="3">
-        <v>6596459656</v>
+        <v>699</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="D385" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B386" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D386" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B387" t="s">
-        <v>703</v>
+        <v>468</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D387" t="s">
-        <v>705</v>
+        <v>529</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B388" t="s">
-        <v>468</v>
-      </c>
-      <c r="C388" s="3" t="s">
         <v>706</v>
       </c>
+      <c r="C388" s="3">
+        <v>6581114518</v>
+      </c>
       <c r="D388" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B389" t="s">
         <v>707</v>
       </c>
       <c r="C389" s="3">
-        <v>6581114518</v>
+        <v>6596820482</v>
       </c>
       <c r="D389" t="s">
-        <v>589</v>
+        <v>708</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B390" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C390" s="3">
-        <v>6596820482</v>
+        <v>6590525965</v>
       </c>
       <c r="D390" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B391" t="s">
-        <v>710</v>
-      </c>
-      <c r="C391" s="3">
-        <v>6590525965</v>
+        <v>711</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="D391" t="s">
-        <v>711</v>
+        <v>638</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B392" t="s">
-        <v>712</v>
-      </c>
-      <c r="C392" s="3" t="s">
         <v>713</v>
       </c>
+      <c r="C392" s="3">
+        <v>6593709567</v>
+      </c>
       <c r="D392" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B393" t="s">
+        <v>143</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C393" s="3">
-        <v>6593709567</v>
-      </c>
       <c r="D393" t="s">
-        <v>674</v>
+        <v>559</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B394" t="s">
-        <v>143</v>
-      </c>
-      <c r="C394" s="3" t="s">
         <v>715</v>
       </c>
+      <c r="C394" s="3">
+        <v>6594892864</v>
+      </c>
       <c r="D394" t="s">
-        <v>559</v>
+        <v>716</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B395" t="s">
-        <v>716</v>
-      </c>
-      <c r="C395" s="3">
-        <v>6594892864</v>
+        <v>717</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="D395" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B396" t="s">
-        <v>718</v>
-      </c>
-      <c r="C396" s="3" t="s">
         <v>719</v>
       </c>
+      <c r="C396" s="3">
+        <v>6584368000</v>
+      </c>
       <c r="D396" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B397" t="s">
         <v>720</v>
       </c>
-      <c r="C397" s="3">
-        <v>6584368000</v>
+      <c r="C397" s="3" t="s">
+        <v>721</v>
       </c>
       <c r="D397" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B398" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D398" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B399" t="s">
-        <v>724</v>
+        <v>508</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D399" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B400" t="s">
-        <v>508</v>
+        <v>412</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D400" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B401" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D401" t="s">
-        <v>730</v>
+        <v>623</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B402" t="s">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>731</v>
       </c>
       <c r="D402" t="s">
-        <v>624</v>
+        <v>732</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B403" t="s">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D403" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B404" t="s">
-        <v>100</v>
+        <v>735</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D404" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B405" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D405" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B406" t="s">
-        <v>739</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="C406" s="3">
+        <v>6592328795</v>
       </c>
       <c r="D406" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B407" t="s">
-        <v>742</v>
-      </c>
-      <c r="C407" s="3">
-        <v>6592328795</v>
+        <v>66</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="D407" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B408" t="s">
-        <v>66</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>744</v>
+        <v>295</v>
+      </c>
+      <c r="C408" s="3">
+        <v>6597367913</v>
       </c>
       <c r="D408" t="s">
         <v>745</v>
@@ -12214,18 +12211,18 @@
         <v>460</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B409" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="C409" s="3">
-        <v>6597367913</v>
+        <v>6590211700</v>
       </c>
       <c r="D409" t="s">
         <v>746</v>
@@ -12234,1018 +12231,1018 @@
         <v>460</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B410" t="s">
-        <v>31</v>
-      </c>
-      <c r="C410" s="3">
-        <v>6590211700</v>
+        <v>747</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>748</v>
       </c>
       <c r="D410" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B411" t="s">
-        <v>748</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="C411" s="3">
+        <v>6598178114</v>
       </c>
       <c r="D411" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B412" t="s">
-        <v>751</v>
+        <v>398</v>
       </c>
       <c r="C412" s="3">
-        <v>6598178114</v>
+        <v>6597407339</v>
       </c>
       <c r="D412" t="s">
-        <v>752</v>
+        <v>687</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B413" t="s">
-        <v>398</v>
+        <v>752</v>
       </c>
       <c r="C413" s="3">
-        <v>6597407339</v>
+        <v>6590628363</v>
       </c>
       <c r="D413" t="s">
-        <v>688</v>
+        <v>753</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B414" t="s">
-        <v>753</v>
-      </c>
-      <c r="C414" s="3">
-        <v>6590628363</v>
+        <v>754</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="D414" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B415" t="s">
-        <v>755</v>
+        <v>240</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>756</v>
       </c>
       <c r="D415" t="s">
-        <v>688</v>
+        <v>757</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B416" t="s">
-        <v>240</v>
+        <v>758</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D416" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D417" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" t="s">
-        <v>762</v>
+        <v>458</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D418" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B419" t="s">
-        <v>458</v>
+        <v>564</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D419" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B420" t="s">
-        <v>564</v>
+        <v>253</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D420" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B421" t="s">
-        <v>253</v>
+        <v>770</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D421" t="s">
-        <v>770</v>
+        <v>507</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B422" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D422" t="s">
-        <v>507</v>
+        <v>774</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B423" t="s">
-        <v>773</v>
+        <v>476</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D423" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B424" t="s">
-        <v>476</v>
+        <v>777</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D424" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B425" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D425" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B426" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D426" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B427" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D427" t="s">
-        <v>786</v>
+        <v>472</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B428" t="s">
-        <v>787</v>
+        <v>59</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>788</v>
       </c>
       <c r="D428" t="s">
-        <v>472</v>
+        <v>789</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B429" t="s">
-        <v>59</v>
+        <v>702</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D429" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B430" t="s">
-        <v>703</v>
+        <v>148</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D430" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B431" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D431" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B432" t="s">
-        <v>295</v>
+        <v>796</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D432" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B433" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D433" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B434" t="s">
-        <v>800</v>
+        <v>226</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D434" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B435" t="s">
-        <v>226</v>
+        <v>804</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D435" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B436" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D436" t="s">
-        <v>807</v>
+        <v>483</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B437" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>809</v>
       </c>
       <c r="D437" t="s">
-        <v>483</v>
+        <v>742</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B438" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>810</v>
       </c>
       <c r="D438" t="s">
-        <v>743</v>
+        <v>811</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B439" t="s">
-        <v>724</v>
+        <v>665</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D439" t="s">
-        <v>812</v>
+        <v>732</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B440" t="s">
-        <v>666</v>
+        <v>813</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D440" t="s">
-        <v>733</v>
+        <v>815</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B441" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D441" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B442" t="s">
-        <v>817</v>
+        <v>508</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D442" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B443" t="s">
-        <v>508</v>
+        <v>821</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D443" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B444" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D444" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B445" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D445" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B446" t="s">
-        <v>828</v>
+        <v>59</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>829</v>
       </c>
       <c r="D446" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B447" t="s">
-        <v>59</v>
+        <v>417</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>830</v>
       </c>
       <c r="D447" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B448" t="s">
-        <v>417</v>
+        <v>832</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D448" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B449" t="s">
-        <v>833</v>
+        <v>189</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D449" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B450" t="s">
-        <v>189</v>
+        <v>837</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D450" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B451" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D451" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B452" t="s">
-        <v>841</v>
+        <v>109</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>842</v>
       </c>
       <c r="D452" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B453" t="s">
-        <v>109</v>
+        <v>844</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D453" t="s">
-        <v>844</v>
+        <v>467</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B454" t="s">
-        <v>845</v>
+        <v>217</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>846</v>
       </c>
       <c r="D454" t="s">
-        <v>467</v>
+        <v>847</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B455" t="s">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D455" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B456" t="s">
-        <v>363</v>
+        <v>850</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D456" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B457" t="s">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="D457" t="s">
-        <v>853</v>
+        <v>1058</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B458" t="s">
         <v>887</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D458" t="s">
-        <v>1059</v>
+        <v>1110</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B459" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D459" t="s">
-        <v>1111</v>
+        <v>1060</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B460" t="s">
+        <v>894</v>
+      </c>
+      <c r="C460" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>892</v>
       </c>
       <c r="D460" t="s">
         <v>1061</v>
@@ -13254,158 +13251,158 @@
         <v>460</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B461" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="D461" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B462" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D462" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B463" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="D463" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B464" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="D464" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B465" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D465" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B466" t="s">
+        <v>940</v>
+      </c>
+      <c r="C466" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="C466" s="3" t="s">
-        <v>938</v>
-      </c>
       <c r="D466" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B467" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D467" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B468" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="D468" t="s">
         <v>1076</v>
@@ -13414,38 +13411,38 @@
         <v>460</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B469" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="D469" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B470" t="s">
         <v>956</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="D470" t="s">
         <v>1079</v>
@@ -13454,38 +13451,38 @@
         <v>460</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B471" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="D471" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B472" t="s">
+        <v>969</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>968</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>967</v>
       </c>
       <c r="D472" t="s">
         <v>1083</v>
@@ -13494,58 +13491,58 @@
         <v>460</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B473" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D473" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B474" t="s">
+        <v>975</v>
+      </c>
+      <c r="C474" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="C474" s="3" t="s">
-        <v>973</v>
-      </c>
       <c r="D474" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B475" t="s">
+        <v>977</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="D475" t="s">
         <v>1084</v>
@@ -13554,58 +13551,58 @@
         <v>460</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B476" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="D476" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D477" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" t="s">
         <v>993</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D478" t="s">
         <v>1092</v>
@@ -13614,78 +13611,78 @@
         <v>460</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B479" t="s">
-        <v>994</v>
+        <v>929</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D479" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B480" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>998</v>
       </c>
       <c r="D480" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B481" t="s">
-        <v>911</v>
+        <v>1000</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>999</v>
       </c>
       <c r="D481" t="s">
-        <v>1067</v>
+        <v>1094</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B482" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C482" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>1000</v>
       </c>
       <c r="D482" t="s">
         <v>1095</v>
@@ -13694,58 +13691,58 @@
         <v>460</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B483" t="s">
-        <v>1003</v>
+        <v>228</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="D483" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B484" t="s">
-        <v>228</v>
+        <v>1026</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D484" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B485" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="D485" t="s">
         <v>1105</v>
@@ -13754,15 +13751,15 @@
         <v>460</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B486" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>1031</v>
@@ -13774,18 +13771,18 @@
         <v>460</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B487" t="s">
+        <v>910</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>1033</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>1032</v>
       </c>
       <c r="D487" t="s">
         <v>1107</v>
@@ -13794,98 +13791,98 @@
         <v>460</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B488" t="s">
-        <v>911</v>
+        <v>1035</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="D488" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B489" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="D489" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1044</v>
+        <v>946</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>1043</v>
+        <v>1113</v>
       </c>
       <c r="D490" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B491" t="s">
-        <v>947</v>
+        <v>1123</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="D491" t="s">
-        <v>1115</v>
+        <v>507</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B492" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="D492" t="s">
         <v>507</v>
@@ -13894,124 +13891,124 @@
         <v>460</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="B493" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>1132</v>
+        <v>853</v>
+      </c>
+      <c r="C493" s="3">
+        <v>6597973299</v>
       </c>
       <c r="D493" t="s">
-        <v>507</v>
+        <v>855</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>460</v>
+        <v>854</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B494" t="s">
+        <v>856</v>
+      </c>
+      <c r="C494" s="3">
+        <v>6581021049</v>
+      </c>
+      <c r="D494" t="s">
+        <v>855</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C494" s="3">
-        <v>6597973299</v>
-      </c>
-      <c r="D494" t="s">
-        <v>856</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>855</v>
-      </c>
       <c r="F494" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B495" t="s">
         <v>857</v>
       </c>
-      <c r="C495" s="3">
-        <v>6581021049</v>
+      <c r="C495" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="D495" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B496" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D496" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B497" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D497" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B498" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D498" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F498" s="3" t="s">
         <v>1160</v>
@@ -14019,39 +14016,39 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B499" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D499" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B500" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D500" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F500" s="3" t="s">
         <v>1160</v>
@@ -14059,219 +14056,219 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B501" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D501" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B502" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D502" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B503" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D503" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B504" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D504" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B505" t="s">
-        <v>876</v>
-      </c>
-      <c r="C505" s="3" t="s">
         <v>877</v>
       </c>
+      <c r="C505" s="3">
+        <v>6597391278</v>
+      </c>
       <c r="D505" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B506" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C506" s="3">
-        <v>6597391278</v>
+        <v>6592475844</v>
       </c>
       <c r="D506" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B507" t="s">
         <v>880</v>
       </c>
       <c r="C507" s="3">
-        <v>6592475844</v>
+        <v>6591373209</v>
       </c>
       <c r="D507" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B508" t="s">
         <v>881</v>
       </c>
-      <c r="C508" s="3">
-        <v>6591373209</v>
+      <c r="C508" s="3" t="s">
+        <v>882</v>
       </c>
       <c r="D508" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B509" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="D509" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B510" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="D510" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B511" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D511" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F511" s="3" t="s">
         <v>1160</v>
@@ -14279,48 +14276,28 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B512" t="s">
-        <v>909</v>
+        <v>986</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>908</v>
+        <v>985</v>
       </c>
       <c r="D512" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A513" s="1">
-        <v>488</v>
-      </c>
-      <c r="B513" t="s">
-        <v>987</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="D513" t="s">
-        <v>856</v>
-      </c>
-      <c r="E513" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="F513" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:G2" xr:uid="{5DE784B9-A7A5-40C4-BBBF-1CCA905101EE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G513">
-    <sortCondition ref="E494:E513"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G512">
+    <sortCondition ref="E493:E512"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="4"/>
@@ -14365,12 +14342,12 @@
   <sheetData>
     <row r="3" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
